--- a/nueva_base_1 2(matriz)_ACP_2Variables.xlsx
+++ b/nueva_base_1 2(matriz)_ACP_2Variables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C570"/>
+  <dimension ref="A1:D570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6267 +446,7979 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>COMPONENTE_SUMA</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.471799551109083</v>
+        <v>1.935181123450129</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07968321027679461</v>
+        <v>-0.1632609976130876</v>
       </c>
       <c r="C2" t="n">
-        <v>1.551482761385878</v>
+        <v>-0.1170246598725967</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.654895465964445</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.643539109828415</v>
+        <v>3.131620229511289</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.05578198992644849</v>
+        <v>0.1319285796452856</v>
       </c>
       <c r="C3" t="n">
-        <v>2.587757119901966</v>
+        <v>0.09697179801242047</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.360520607168995</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.219446787388289</v>
+        <v>2.716608998853263</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01485241177950804</v>
+        <v>-0.00665456593585337</v>
       </c>
       <c r="C4" t="n">
-        <v>2.234299199167797</v>
+        <v>0.009378493613947669</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.719332926531357</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.084258502663202</v>
+        <v>-1.227375422311684</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.003143439613979742</v>
+        <v>-0.07460083856853929</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.087401942277182</v>
+        <v>-0.1220194530271618</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.423995713907386</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.528985724803041</v>
+        <v>3.090517283149399</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.05369248877103858</v>
+        <v>0.05596897573224193</v>
       </c>
       <c r="C6" t="n">
-        <v>2.475293236032003</v>
+        <v>-0.02083835508486919</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.125647903796772</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.6943966214389314</v>
+        <v>-0.7903938516059167</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02070110911197015</v>
+        <v>-0.0637921078279662</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6736955123269612</v>
+        <v>-0.06088477845305691</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.9150707378869398</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.602447211298349</v>
+        <v>1.965573178809089</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05346629939535193</v>
+        <v>-0.04414063680439289</v>
       </c>
       <c r="C8" t="n">
-        <v>1.655913510693701</v>
+        <v>0.02445437716462066</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.945886919169316</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.2386355908862906</v>
+        <v>-0.2367433949182898</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07102755597416346</v>
+        <v>-0.1020933193993253</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1676080349121271</v>
+        <v>-0.02882627900562576</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.3676629933232409</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.4980677239695128</v>
+        <v>-0.5127725322732168</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04528341210140771</v>
+        <v>-0.1119170695462574</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.4527843118681051</v>
+        <v>-0.09244745084870259</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.7171370526681768</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.6948016388917917</v>
+        <v>-0.7573877141946932</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02512269384590117</v>
+        <v>-0.09251464877386965</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.6696789450458905</v>
+        <v>-0.09870970241967536</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.9486120653882382</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6675153554420358</v>
+        <v>0.8003438050559708</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09270365157303119</v>
+        <v>-0.0643361603870112</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7602190070150669</v>
+        <v>0.06967636219700546</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8056840068659651</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.5855303327616573</v>
+        <v>0.7548435059086676</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07829105950772701</v>
+        <v>-0.09322837093768159</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6638213922693843</v>
+        <v>-0.003798137484623342</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6578169974863627</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.954129298520765</v>
+        <v>2.557321032384277</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0713084020313869</v>
+        <v>-0.1785547249786056</v>
       </c>
       <c r="C14" t="n">
-        <v>2.025437700552152</v>
+        <v>-0.1592362493500097</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.219530058055662</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.6030071614610465</v>
+        <v>0.771502826327678</v>
       </c>
       <c r="B15" t="n">
-        <v>0.08893020177582873</v>
+        <v>-0.09867067002769275</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6919373632368753</v>
+        <v>0.007535248564451489</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6803674048644368</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.2338145899074221</v>
+        <v>-0.1518605235497748</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07423968955743501</v>
+        <v>-0.1636801841241808</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1595749003499871</v>
+        <v>-0.1218240687672236</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.4373647764411792</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.09074866665786657</v>
+        <v>0.1875169868353669</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07501838275882447</v>
+        <v>-0.1203190511152912</v>
       </c>
       <c r="C17" t="n">
-        <v>0.165767049416691</v>
+        <v>-0.05177857397135981</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.01541936174871594</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1705495027089116</v>
+        <v>0.205225946810018</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05144948864276113</v>
+        <v>-0.04051874735135739</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2219989913516728</v>
+        <v>0.03165286615975154</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1963600656184121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.6916175597324176</v>
+        <v>0.9486014168503383</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1127836873744204</v>
+        <v>-0.169817268427188</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8044012471068379</v>
+        <v>-0.06204814946214995</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7167359989610004</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.358177993010997</v>
+        <v>2.829679434047871</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.07567998647035909</v>
+        <v>0.1127382111032135</v>
       </c>
       <c r="C20" t="n">
-        <v>2.282498006540638</v>
+        <v>0.02945096287420888</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.971868608025293</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.2961049900115436</v>
+        <v>-0.3488893797158688</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06021531132122395</v>
+        <v>-0.06192102329656262</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2358896786903196</v>
+        <v>0.01552166418659209</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.3952887388258393</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.481599237996333</v>
+        <v>-0.5438279328396491</v>
       </c>
       <c r="B22" t="n">
-        <v>0.06094746437678882</v>
+        <v>-0.0869716325525962</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.4206517736195441</v>
+        <v>-0.02271356126330091</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.6535131266555463</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-1.6946893004222</v>
+        <v>-2.136199363092858</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.1622869329080147</v>
+        <v>0.1791494681950921</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.856976233330215</v>
+        <v>-0.01306393472706342</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-1.970113829624829</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.3431167994497009</v>
+        <v>0.5309364168572446</v>
       </c>
       <c r="B24" t="n">
-        <v>0.143975632452599</v>
+        <v>-0.203819575443255</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4870924319022998</v>
+        <v>-0.05639956954749363</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.2707172718664959</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.918892415690692</v>
+        <v>3.458632827475001</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.0941578262055893</v>
+        <v>0.1726584670010652</v>
       </c>
       <c r="C25" t="n">
-        <v>2.824734589485102</v>
+        <v>0.08880346874617691</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.720094763222243</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.008821022107946</v>
+        <v>1.252519900266769</v>
       </c>
       <c r="B26" t="n">
-        <v>0.004441723614537699</v>
+        <v>-0.01427722145940889</v>
       </c>
       <c r="C26" t="n">
-        <v>1.013262745722483</v>
+        <v>-0.01821083029248258</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.220031848514878</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.123516702874584</v>
+        <v>1.489087605156808</v>
       </c>
       <c r="B27" t="n">
-        <v>0.08655783962033589</v>
+        <v>-0.1552625585079988</v>
       </c>
       <c r="C27" t="n">
-        <v>1.21007454249492</v>
+        <v>-0.08987522089292219</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.243949825755888</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.07062662179705918</v>
+        <v>0.187341624883977</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1112066967439126</v>
+        <v>-0.1692721999193811</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1818333185409718</v>
+        <v>-0.06190636450376356</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.04383693953916769</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.78334397156041</v>
+        <v>2.172655034162091</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01716596125181506</v>
+        <v>-0.002205120760154466</v>
       </c>
       <c r="C29" t="n">
-        <v>1.800509932812225</v>
+        <v>0.02249891725399455</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.192948830655931</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.3913940237334564</v>
+        <v>0.5678519176103538</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07963213904456344</v>
+        <v>-0.1326275984950342</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4710261627780198</v>
+        <v>-0.06392885084136139</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.3712954682739582</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.295142871384233</v>
+        <v>1.605338227109179</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08764406419670145</v>
+        <v>-0.08578562238106995</v>
       </c>
       <c r="C31" t="n">
-        <v>1.382786935580934</v>
+        <v>0.02331533718918693</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.542867941917296</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.775294033374502</v>
+        <v>2.23038978677032</v>
       </c>
       <c r="B32" t="n">
-        <v>0.03324903399986278</v>
+        <v>-0.0662408967930621</v>
       </c>
       <c r="C32" t="n">
-        <v>1.808543067374365</v>
+        <v>-0.05001339953173985</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.114135490445518</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.8903064984356834</v>
+        <v>-1.06080751766289</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.02839961803655419</v>
+        <v>0.0001229406517159598</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.9187061164722377</v>
+        <v>-0.05036345575330453</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-1.111048032764479</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.072468770311912</v>
+        <v>1.371252014117379</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08940696481016526</v>
+        <v>-0.116550713406473</v>
       </c>
       <c r="C34" t="n">
-        <v>1.161875735122078</v>
+        <v>-0.02202469954995456</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.232676601160951</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.05264442046147</v>
+        <v>2.530492011867978</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01295895290138238</v>
+        <v>-0.0189508650991144</v>
       </c>
       <c r="C35" t="n">
-        <v>2.065603373362852</v>
+        <v>-0.01338183872936604</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.498159308039498</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.7085106673861865</v>
+        <v>0.9361730216153989</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09589057972065153</v>
+        <v>-0.1307763141588993</v>
       </c>
       <c r="C36" t="n">
-        <v>0.804401247106838</v>
+        <v>-0.03130699634597499</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.7740897111105246</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.956306517890942</v>
+        <v>1.212184556461481</v>
       </c>
       <c r="B37" t="n">
-        <v>0.09310533336117217</v>
+        <v>-0.107408989140509</v>
       </c>
       <c r="C37" t="n">
-        <v>1.049411851252114</v>
+        <v>0.0001060761363084806</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.104881643457281</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.01937753242565344</v>
+        <v>0.02383677243474962</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06866413069131172</v>
+        <v>-0.09369536911818924</v>
       </c>
       <c r="C38" t="n">
-        <v>0.04928659826565828</v>
+        <v>-0.02058943388494301</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.09044803056838263</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.4839985360699227</v>
+        <v>-0.6177105338988468</v>
       </c>
       <c r="B39" t="n">
-        <v>0.04326392604502768</v>
+        <v>-0.01910417698791846</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.440734610024895</v>
+        <v>0.0529686811780266</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.5838460297087387</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.261564800261795</v>
+        <v>0.2985970723099403</v>
       </c>
       <c r="B40" t="n">
-        <v>0.08494777680305135</v>
+        <v>-0.05522366402684557</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3465125770648463</v>
+        <v>0.07111630376984339</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.3144897120529381</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.322433389990677</v>
+        <v>-0.3479926989801724</v>
       </c>
       <c r="B41" t="n">
-        <v>0.06244430761393722</v>
+        <v>-0.08857197141819637</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.2599890823767398</v>
+        <v>-0.02302986703300138</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.4595945374313701</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.3228244044237316</v>
+        <v>-0.4011877300807618</v>
       </c>
       <c r="B42" t="n">
-        <v>0.04676905292271108</v>
+        <v>-0.03599039148133822</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.2760553515010206</v>
+        <v>0.03186108581120545</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.4053170357508945</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-1.208814097435794</v>
+        <v>-1.464343146656103</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.06736650705168339</v>
+        <v>0.04249523615921707</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.276180604487477</v>
+        <v>-0.05485588449249067</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-1.476703794989377</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.895835861469985</v>
+        <v>2.412170339778517</v>
       </c>
       <c r="B44" t="n">
-        <v>0.08943616627146499</v>
+        <v>-0.1390599642260446</v>
       </c>
       <c r="C44" t="n">
-        <v>1.98527202774145</v>
+        <v>-0.06116191589572274</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.211948459656749</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.390754242224326</v>
+        <v>-0.4294763522872442</v>
       </c>
       <c r="B45" t="n">
-        <v>0.05043381422618368</v>
+        <v>-0.08017180179740666</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.3403204279981423</v>
+        <v>-0.03201844061586401</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.5416665947005149</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.4403972164198105</v>
+        <v>-0.5152122953995316</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0558945483298972</v>
+        <v>-0.06631644898722269</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.3845026680899133</v>
+        <v>0.0007910920167670052</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.5807376523699873</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.755177589721617</v>
+        <v>2.187830046594245</v>
       </c>
       <c r="B47" t="n">
-        <v>0.06139861221488802</v>
+        <v>-0.07678039292722381</v>
       </c>
       <c r="C47" t="n">
-        <v>1.816576201936505</v>
+        <v>-0.01357738661718724</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.097472267049834</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-2.102170866207916</v>
+        <v>-2.674363778853853</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.2801723674862685</v>
+        <v>0.3073445539620495</v>
       </c>
       <c r="C48" t="n">
-        <v>-2.382343233694184</v>
+        <v>-0.02865944375267031</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-2.395678668644474</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.434162855261872</v>
+        <v>-0.4968025750834968</v>
       </c>
       <c r="B49" t="n">
-        <v>0.04966018717195868</v>
+        <v>-0.06905123559572303</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.3845026680899133</v>
+        <v>-0.01543856109719816</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.5812923717764181</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.8306361090573295</v>
+        <v>-1.009456052678958</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.003722094512435388</v>
+        <v>-0.004466632200472151</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.834358203569765</v>
+        <v>-0.01122233089345635</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-1.025145015772886</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.3168051547100488</v>
+        <v>-0.3788746550189945</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06083263961437906</v>
+        <v>-0.05903451774242979</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.2559725150956697</v>
+        <v>0.02140899156403804</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.4165001811973862</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.9319135374650664</v>
+        <v>-1.171166566343014</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.01892511725573198</v>
+        <v>0.03628576074011056</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.9508386547207984</v>
+        <v>0.02590131074416811</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-1.108979494858736</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.2649611902614633</v>
+        <v>-0.3294120626102353</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0692371843818453</v>
+        <v>-0.05558655828495714</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.195724005879618</v>
+        <v>0.04268558630785373</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-0.3423130345873387</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.8762569147638217</v>
+        <v>-1.102152974173985</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.002283528897714927</v>
+        <v>0.0216673722625736</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.8785404436615366</v>
+        <v>0.03370506207820564</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-1.046780539833206</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.58234477066527</v>
+        <v>1.965845994953082</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06151903818522033</v>
+        <v>-0.06956475722803759</v>
       </c>
       <c r="C55" t="n">
-        <v>1.64386380885049</v>
+        <v>-0.001116003461317131</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.895165234263727</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.3118110997306282</v>
+        <v>0.3805391647500415</v>
       </c>
       <c r="B56" t="n">
-        <v>0.07888371742598906</v>
+        <v>-0.06518744047888032</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3906948171566172</v>
+        <v>0.04342157605994447</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.3587733003311056</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-1.018121837058887</v>
+        <v>-1.274386550250854</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.02911443240759382</v>
+        <v>0.04297689906057517</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.047236269466481</v>
+        <v>0.01767794358563765</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-1.213731707604642</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.020483876173297</v>
+        <v>2.447123224105296</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02102009350313511</v>
+        <v>0.0069343801649265</v>
       </c>
       <c r="C58" t="n">
-        <v>2.041503969676432</v>
+        <v>0.04363996107188935</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.497697565342111</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.1210684284824199</v>
+        <v>0.1842265890622845</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1129802647124636</v>
+        <v>-0.1222933318642313</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2340486931948835</v>
+        <v>0.01683672434350944</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.07876998154156258</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.4731442823575648</v>
+        <v>-0.6088573057339294</v>
       </c>
       <c r="B60" t="n">
-        <v>0.04044280689481056</v>
+        <v>-0.01338007660441726</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.4327014754627542</v>
+        <v>0.05679341159616988</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.5654439707421767</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-1.971970792651721</v>
+        <v>-2.505440036395334</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.2408733017813047</v>
+        <v>0.267260828215504</v>
       </c>
       <c r="C61" t="n">
-        <v>-2.212844094433026</v>
+        <v>-0.01917377642575827</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-2.257352984605589</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.484516408671707</v>
+        <v>-1.864370469435959</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.1049564437392383</v>
+        <v>0.1202568718170643</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.589472852410945</v>
+        <v>2.918826746718585e-05</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-1.744084409351427</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-1.981417287392931</v>
+        <v>-2.50552843217255</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.2394599416022349</v>
+        <v>0.2574842919615115</v>
       </c>
       <c r="C63" t="n">
-        <v>-2.220877228995166</v>
+        <v>-0.03218840483968556</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-2.280232545050724</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.006163237479449283</v>
+        <v>0.111060884046494</v>
       </c>
       <c r="B64" t="n">
-        <v>0.04312336078620901</v>
+        <v>-0.1136982498906721</v>
       </c>
       <c r="C64" t="n">
-        <v>0.04928659826565829</v>
+        <v>-0.101232218790112</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.1038695846342901</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-1.787307584102361</v>
+        <v>-2.238983649247031</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.2026170262312733</v>
+        <v>0.2051945792178904</v>
       </c>
       <c r="C65" t="n">
-        <v>-1.989924610333635</v>
+        <v>-0.0472201835299824</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-2.081009253559123</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.6041633527521568</v>
+        <v>-0.7138986175750932</v>
       </c>
       <c r="B66" t="n">
-        <v>0.02284888788980828</v>
+        <v>-0.04006258821786318</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.5813144648623485</v>
+        <v>-0.01897444189273299</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.7729356476856893</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.1580527743534224</v>
+        <v>0.2584367605598195</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1041118898089512</v>
+        <v>-0.1362527925980405</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2621646641623737</v>
+        <v>-0.02254853779936606</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.09963543016241294</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-1.71157148572052</v>
+        <v>-2.155449803391432</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.161069360005868</v>
+        <v>0.1770188075900317</v>
       </c>
       <c r="C68" t="n">
-        <v>-1.872640845726388</v>
+        <v>-0.01412382256487639</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-1.992554818366276</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-1.090260948753118</v>
+        <v>-1.369937613560192</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.04132323361583542</v>
+        <v>0.05853761542559362</v>
       </c>
       <c r="C69" t="n">
-        <v>-1.131584182368953</v>
+        <v>0.01984555370075142</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-1.291554444433847</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-1.837142144668827</v>
+        <v>-2.28942460334892</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.2106210345122171</v>
+        <v>0.20397531319526</v>
       </c>
       <c r="C70" t="n">
-        <v>-2.047763179181044</v>
+        <v>-0.06416052161425251</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-2.149609811767912</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.5770417214910695</v>
+        <v>-0.723170762538348</v>
       </c>
       <c r="B71" t="n">
-        <v>0.03589292943942174</v>
+        <v>-0.01938627342768569</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.5411487920516478</v>
+        <v>0.03889143640738912</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.7036655995586446</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.922016364499932</v>
+        <v>2.321519793140243</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01104028858760655</v>
+        <v>0.01891524964888651</v>
       </c>
       <c r="C72" t="n">
-        <v>1.933056653087539</v>
+        <v>0.04436654761624908</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.384801590405378</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-1.878530991589597</v>
+        <v>-2.323223874845924</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.2258657862545354</v>
+        <v>0.2042158047449621</v>
       </c>
       <c r="C73" t="n">
-        <v>-2.104396777844133</v>
+        <v>-0.09249760888874452</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-2.211505678989707</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.169151511600881</v>
+        <v>1.483441808386469</v>
       </c>
       <c r="B74" t="n">
-        <v>0.06502243458045845</v>
+        <v>-0.09104147160159588</v>
       </c>
       <c r="C74" t="n">
-        <v>1.23417394618134</v>
+        <v>-0.02752799943767562</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.364872337347198</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.2080923158055982</v>
+        <v>-0.2063341334945217</v>
       </c>
       <c r="B75" t="n">
-        <v>0.07663338642310194</v>
+        <v>-0.1015625355465084</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.1314589293824963</v>
+        <v>-0.01746564785447922</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0.3253623168955094</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-0.7349813147222989</v>
+        <v>-0.9040050465668046</v>
       </c>
       <c r="B76" t="n">
-        <v>0.005053860460356655</v>
+        <v>-0.002978464352830146</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.7299274542619423</v>
+        <v>0.007446475687928116</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.8995370352317066</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.7175773501101872</v>
+        <v>0.8744799028061269</v>
       </c>
       <c r="B77" t="n">
-        <v>0.06272449331023064</v>
+        <v>-0.04838129568191568</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7803018434204179</v>
+        <v>0.0383772499012381</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.8644758570254493</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-0.3123919717880019</v>
+        <v>-0.351448100939002</v>
       </c>
       <c r="B78" t="n">
-        <v>0.07248572581661226</v>
+        <v>-0.08531731527253869</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.2399062459713897</v>
+        <v>0.001187669091617988</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.4355777471199226</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.493904674174775</v>
+        <v>1.89132507334057</v>
       </c>
       <c r="B79" t="n">
-        <v>0.081677490897524</v>
+        <v>-0.112029841211978</v>
       </c>
       <c r="C79" t="n">
-        <v>1.575582165072299</v>
+        <v>-0.03092085362396632</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.748374378504625</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.40231822404335</v>
+        <v>3.19201874462868</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02879277189688206</v>
+        <v>-0.2055176812718033</v>
       </c>
       <c r="C80" t="n">
-        <v>2.431110995940232</v>
+        <v>-0.2847580441588676</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.701743019198009</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.5533333322377032</v>
+        <v>-0.660481653409668</v>
       </c>
       <c r="B81" t="n">
-        <v>0.04431707843461635</v>
+        <v>-0.05156187571881917</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.5090162538030869</v>
+        <v>0.003005700645800154</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.709037828482687</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-1.047262954376355</v>
+        <v>-1.286976345483755</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.02808928605761728</v>
+        <v>0.0248258280033428</v>
       </c>
       <c r="C82" t="n">
-        <v>-1.075352240433972</v>
+        <v>-0.009471226924884868</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-1.271621744405297</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-0.4293838633424217</v>
+        <v>-0.4806619023194633</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1131628390307001</v>
+        <v>-0.1305291998473933</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.3162210243117216</v>
+        <v>0.005931003456069275</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0.6052600987107873</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4.687509505639154</v>
+        <v>5.718279710779178</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.2320486000395892</v>
+        <v>0.2235403138036209</v>
       </c>
       <c r="C84" t="n">
-        <v>4.455460905599565</v>
+        <v>-0.09693440926171179</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5.844885615321087</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1.958171071237486</v>
+        <v>2.482006116826785</v>
       </c>
       <c r="B85" t="n">
-        <v>0.03915065834717496</v>
+        <v>-0.09145821218740494</v>
       </c>
       <c r="C85" t="n">
-        <v>1.997321729584661</v>
+        <v>-0.08006146594670682</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2.310486438692673</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-0.8527440327269826</v>
+        <v>-1.053443691636024</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.001697007248133258</v>
+        <v>0.006376649434095879</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.8544410399751159</v>
+        <v>0.01013513423573131</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-1.036931907966197</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.715009116306955</v>
+        <v>2.093095909900991</v>
       </c>
       <c r="B87" t="n">
-        <v>0.02525230728921862</v>
+        <v>-0.01228468864394472</v>
       </c>
       <c r="C87" t="n">
-        <v>1.740261423596174</v>
+        <v>0.02184923384253124</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.102660455099578</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.05738147182299624</v>
+        <v>0.1012608378845799</v>
       </c>
       <c r="B88" t="n">
-        <v>0.08428617390727466</v>
+        <v>-0.09440827814766209</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1416676457302709</v>
+        <v>0.00757409549634577</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.01442665523326354</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.829484084421414</v>
+        <v>2.208112277638799</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1357051069146853</v>
+        <v>-0.08687666128731895</v>
       </c>
       <c r="C89" t="n">
-        <v>1.965189191336099</v>
+        <v>0.1106517362960232</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2.231887352647503</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-0.7345931008932058</v>
+        <v>-0.889611366312607</v>
       </c>
       <c r="B90" t="n">
-        <v>0.02474848303661371</v>
+        <v>-0.03004442821984494</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.7098446178565921</v>
+        <v>0.001210912870300594</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-0.9184448816621513</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.09695502177619315</v>
+        <v>0.1697800719375219</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1089777004511995</v>
+        <v>-0.1301983511297455</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2059327222273926</v>
+        <v>-0.003372252242487186</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.03620946856528923</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.1146581643356826</v>
+        <v>0.1556181946930651</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0832414233295693</v>
+        <v>-0.08162921754622977</v>
       </c>
       <c r="C92" t="n">
-        <v>0.197899587665252</v>
+        <v>0.02594307907471953</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.09993205622155485</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.3970054553903172</v>
+        <v>0.5200909864240232</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1021366783551927</v>
+        <v>-0.110961747055606</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4991421337455099</v>
+        <v>0.0135251907036371</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.4226544300720543</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-0.3796904782756352</v>
+        <v>-0.4818932643049207</v>
       </c>
       <c r="B94" t="n">
-        <v>0.03535348299642291</v>
+        <v>-0.01819208043277321</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.3443369952792123</v>
+        <v>0.0390749482951694</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-0.4610103964425246</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.3367036863147171</v>
+        <v>-0.4024870624961379</v>
       </c>
       <c r="B95" t="n">
-        <v>0.06466490209476655</v>
+        <v>-0.06288979965446979</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.2720387842199505</v>
+        <v>0.02253824029653873</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-0.442838621854069</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.2892981586081151</v>
+        <v>0.4345506648261603</v>
       </c>
       <c r="B96" t="n">
-        <v>0.08533038942422204</v>
+        <v>-0.1315160123954233</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3746285480323372</v>
+        <v>-0.050977948840049</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.2520567035906879</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.45659509381306</v>
+        <v>2.967258245162252</v>
       </c>
       <c r="B97" t="n">
-        <v>0.006648440375733681</v>
+        <v>0.03046792240045801</v>
       </c>
       <c r="C97" t="n">
-        <v>2.463243534188793</v>
+        <v>0.05269251354569109</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3.050418681108401</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-0.8009084700902808</v>
+        <v>-0.9911133573315482</v>
       </c>
       <c r="B98" t="n">
-        <v>0.01876564117442684</v>
+        <v>-0.009994758080689121</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.782142828915854</v>
+        <v>0.02237016326451776</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-0.9787379521477194</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-1.596426537958434</v>
+        <v>-2.013849444916592</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.1468808413174955</v>
+        <v>0.1648077426417223</v>
       </c>
       <c r="C99" t="n">
-        <v>-1.74330737927593</v>
+        <v>-0.007309733253121731</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-1.856351435527992</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-0.9948156646544202</v>
+        <v>-1.231546750023737</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.02028806656349993</v>
+        <v>0.02488909342770652</v>
       </c>
       <c r="C100" t="n">
-        <v>-1.01510373121792</v>
+        <v>0.005216089560105863</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-1.201441567035924</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.033868589786157</v>
+        <v>0.08754778698921416</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08369965225769307</v>
+        <v>-0.105205646721989</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1175682420438501</v>
+        <v>-0.01081939684871438</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-0.02847725658148923</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-0.2490652229180592</v>
+        <v>-0.2964859418308827</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0412915151952304</v>
+        <v>-0.04190065972167566</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.2077737077228288</v>
+        <v>0.01171216359516755</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-0.3266744379573908</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-2.463624648411507</v>
+        <v>-3.158077737908347</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.4067315099326953</v>
+        <v>0.444420913261761</v>
       </c>
       <c r="C103" t="n">
-        <v>-2.870356158344202</v>
+        <v>-0.04656434794802574</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-2.760221172594612</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-0.7856242298321092</v>
+        <v>-0.9922344694256039</v>
       </c>
       <c r="B104" t="n">
-        <v>0.003481400916255263</v>
+        <v>0.0177813091848198</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.782142828915854</v>
+        <v>0.03804450936947724</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-0.9364086508713069</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-1.570910693428587</v>
+        <v>-1.949206395035924</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.1366492370458196</v>
+        <v>0.1312977529535531</v>
       </c>
       <c r="C105" t="n">
-        <v>-1.707559930474406</v>
+        <v>-0.04192504861043705</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-1.859833690692808</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-1.371583093457776</v>
+        <v>-1.704098731991762</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.08935960595892632</v>
+        <v>0.09090969246181189</v>
       </c>
       <c r="C106" t="n">
-        <v>-1.460942699416702</v>
+        <v>-0.01804522055527646</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-1.631234260085227</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.4550613277808659</v>
+        <v>-0.4845792562224052</v>
       </c>
       <c r="B107" t="n">
-        <v>0.04645925600453182</v>
+        <v>-0.09457476831670222</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.4086020717763341</v>
+        <v>-0.06248074771164959</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-0.6416347722507569</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-0.9869836385167295</v>
+        <v>-1.20538276683021</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.01205382357690996</v>
+        <v>0.005573611115965928</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.9990374620936395</v>
+        <v>-0.01028590104363604</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-1.210095056757881</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-0.7333864503465082</v>
+        <v>-0.9069599213804244</v>
       </c>
       <c r="B109" t="n">
-        <v>0.02354183248991603</v>
+        <v>-0.01498500511228775</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.7098446178565921</v>
+        <v>0.02314460589732223</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-0.8988003205953898</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>3.352975745462191</v>
+        <v>4.184274362544294</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.08240218777830648</v>
+        <v>0.01899740739914317</v>
       </c>
       <c r="C110" t="n">
-        <v>3.270573557683885</v>
+        <v>-0.1376732012562548</v>
+      </c>
+      <c r="D110" t="n">
+        <v>4.065598568687182</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-1.079409495644722</v>
+        <v>-1.344891657946161</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.04012498488102136</v>
+        <v>0.04878175967453111</v>
       </c>
       <c r="C111" t="n">
-        <v>-1.119534480525743</v>
+        <v>0.006383156707920498</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-1.289726741563709</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-1.607082483850304</v>
+        <v>-2.013250163392373</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.1402414627066969</v>
+        <v>0.1489826884625273</v>
       </c>
       <c r="C112" t="n">
-        <v>-1.747323946557001</v>
+        <v>-0.02015095090858443</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-1.88441842583843</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-0.6516109379024626</v>
+        <v>-0.7654313200109433</v>
       </c>
       <c r="B113" t="n">
-        <v>0.05021363663476384</v>
+        <v>-0.06825903693601103</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.6013973012676987</v>
+        <v>-0.0123275076580204</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-0.8460178646049746</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-0.02360360994305691</v>
+        <v>0.12039018486962</v>
       </c>
       <c r="B114" t="n">
-        <v>0.07690677548978521</v>
+        <v>-0.1765245819164916</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0533031655467283</v>
+        <v>-0.1381953859753333</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-0.1943297830222049</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-1.371387586241248</v>
+        <v>-1.674644381205337</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.08152197861331319</v>
+        <v>0.06248926237886804</v>
       </c>
       <c r="C115" t="n">
-        <v>-1.452909564854562</v>
+        <v>-0.04891628229881138</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-1.661071401125281</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-1.937410390169166</v>
+        <v>-2.441512730842583</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.232054777628302</v>
+        <v>0.2437587702247261</v>
       </c>
       <c r="C116" t="n">
-        <v>-2.169465167797468</v>
+        <v>-0.04040026938367753</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-2.238154230001535</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-0.8762541141598604</v>
+        <v>-1.082635261171472</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.006302896782746202</v>
+        <v>0.01052682696570412</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.8825570109426066</v>
+        <v>0.008172372971287298</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-1.063936061234481</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-1.863666331924885</v>
+        <v>-2.312268203482951</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.2158277287766139</v>
+        <v>0.2011443153789759</v>
       </c>
       <c r="C118" t="n">
-        <v>-2.079494060701498</v>
+        <v>-0.07847970945879332</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-2.189603597562768</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.204684723390085</v>
+        <v>0.3259951100745916</v>
       </c>
       <c r="B119" t="n">
-        <v>0.09362904630191959</v>
+        <v>-0.1350567147389873</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2983137696920046</v>
+        <v>-0.04064853135465903</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.1502898639809453</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.5887480675528514</v>
+        <v>0.8074589341783278</v>
       </c>
       <c r="B120" t="n">
-        <v>0.07507332471653293</v>
+        <v>-0.1267791199476743</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6638213922693843</v>
+        <v>-0.06387160359321736</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.6168082106374362</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.425555815901514</v>
+        <v>1.692751119795929</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1098606763600836</v>
+        <v>-0.05043438175256091</v>
       </c>
       <c r="C121" t="n">
-        <v>1.535416492261597</v>
+        <v>0.1217847984098961</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.764101536453264</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-1.051676137298401</v>
+        <v>-1.301785210604172</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.03974237225985049</v>
+        <v>0.04170271502767876</v>
       </c>
       <c r="C122" t="n">
-        <v>-1.091418509558252</v>
+        <v>-0.004379572955453357</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-1.264462068531947</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1.759196957606648</v>
+        <v>2.136354046892854</v>
       </c>
       <c r="B123" t="n">
-        <v>0.06139581161092719</v>
+        <v>-0.03472684497549069</v>
       </c>
       <c r="C123" t="n">
-        <v>1.820592769217576</v>
+        <v>0.05404703439128639</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2.15567423630865</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>4.257409135901191</v>
+        <v>5.241181803579064</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.1915552565654257</v>
+        <v>0.1512867680198252</v>
       </c>
       <c r="C124" t="n">
-        <v>4.065853879335765</v>
+        <v>-0.134900981331646</v>
+      </c>
+      <c r="D124" t="n">
+        <v>5.257567590267243</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.04631490727034424</v>
+        <v>0.09297399557886672</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1033858730220667</v>
+        <v>-0.1145451425645068</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1497007802924109</v>
+        <v>0.01139891740953242</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-0.01017222957610766</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-0.3559876902301916</v>
+        <v>-0.430147368025986</v>
       </c>
       <c r="B126" t="n">
-        <v>0.05181636776168019</v>
+        <v>-0.04902805325622862</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.3041713224685114</v>
+        <v>0.02056966842000838</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-0.4586057528622062</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-0.1887999100782403</v>
+        <v>-0.2379651424475064</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0774238171010941</v>
+        <v>-0.06099826311162879</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.1113760929771462</v>
+        <v>0.04921025121033959</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-0.2497531543487956</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-0.2693771737874716</v>
+        <v>-0.319933833779169</v>
       </c>
       <c r="B128" t="n">
-        <v>0.06160346606464276</v>
+        <v>-0.06022360771964261</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.2077737077228288</v>
+        <v>0.02078428778892211</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-0.3593731537098895</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.950154740299113</v>
+        <v>2.339714469573377</v>
       </c>
       <c r="B129" t="n">
-        <v>0.007001316474846572</v>
+        <v>0.03452476562347899</v>
       </c>
       <c r="C129" t="n">
-        <v>1.957156056773959</v>
+        <v>0.0617229168421044</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2.43596215203896</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.2347865731664211</v>
+        <v>0.3730356340787345</v>
       </c>
       <c r="B130" t="n">
-        <v>0.155908243990196</v>
+        <v>-0.1953589824870288</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3906948171566171</v>
+        <v>-0.01979691290244841</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.1578797386892573</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2.21740769710418</v>
+        <v>2.724533720144102</v>
       </c>
       <c r="B131" t="n">
-        <v>0.057057174874317</v>
+        <v>-0.05019704179529987</v>
       </c>
       <c r="C131" t="n">
-        <v>2.274464871978497</v>
+        <v>0.01928368017859816</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2.6936203585274</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-0.7894480905006133</v>
+        <v>-0.9510617426405995</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0113218288658293</v>
+        <v>-0.02305517725619525</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.7781262616347839</v>
+        <v>-0.01277824432594487</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-0.9868951642227396</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.4567094520162057</v>
+        <v>0.6044861928939407</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0785817872589359</v>
+        <v>-0.0992757054064884</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5352912392751416</v>
+        <v>-0.01250765400207597</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.4927028334853762</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.7197643373434819</v>
+        <v>0.9263122774384978</v>
       </c>
       <c r="B134" t="n">
-        <v>0.09668661160656673</v>
+        <v>-0.1138018643733632</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8164509489500487</v>
+        <v>-0.002536223080761998</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.8099741899843727</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.5326584213591343</v>
+        <v>0.6736448170268321</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1030469999427599</v>
+        <v>-0.1020630533503866</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6357054213018942</v>
+        <v>0.0290712458031908</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.6006530094796363</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.71300083266642</v>
+        <v>2.070027643912274</v>
       </c>
       <c r="B136" t="n">
-        <v>0.02324402364868332</v>
+        <v>0.004775887079303989</v>
       </c>
       <c r="C136" t="n">
-        <v>1.736244856315103</v>
+        <v>0.04549517787417757</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2.120298708865756</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-0.5714078850025186</v>
+        <v>-0.7102559005119272</v>
       </c>
       <c r="B137" t="n">
-        <v>0.02624252566980095</v>
+        <v>-0.01567931053651563</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.5451653593327177</v>
+        <v>0.02655560792153982</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-0.6993796031269031</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-0.9506026179190754</v>
+        <v>-1.18642000620718</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.02031887320707312</v>
+        <v>0.03173513639064319</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.9709214911261486</v>
+        <v>0.01600946186700477</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-1.138675407949532</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-1.054698364873068</v>
+        <v>-1.310900181509767</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.02868701012304367</v>
+        <v>0.03636230339169745</v>
       </c>
       <c r="C139" t="n">
-        <v>-1.083385374996112</v>
+        <v>0.007980370245901317</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-1.266557507872168</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.2119022218385819</v>
+        <v>0.2893094328747738</v>
       </c>
       <c r="B140" t="n">
-        <v>0.1185440861019836</v>
+        <v>-0.1222201526794582</v>
       </c>
       <c r="C140" t="n">
-        <v>0.3304463079405655</v>
+        <v>0.02716308826081418</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.1942523684561298</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-1.114988883148538</v>
+        <v>-1.361528733994393</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.02864500106362544</v>
+        <v>0.01889543709590998</v>
       </c>
       <c r="C141" t="n">
-        <v>-1.143633884212164</v>
+        <v>-0.01981737230897068</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-1.362450669207454</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-1.618333633264034</v>
+        <v>-2.052435352435646</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.1446549256891399</v>
+        <v>0.1716378565799079</v>
       </c>
       <c r="C142" t="n">
-        <v>-1.762988558953174</v>
+        <v>0.007972086708017185</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-1.872825409147721</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.7161583887231946</v>
+        <v>0.8971562357933649</v>
       </c>
       <c r="B143" t="n">
-        <v>0.08020972382150318</v>
+        <v>-0.08140288301367422</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7963681125446977</v>
+        <v>0.01838380033649374</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.8341371531161844</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-1.058318316513162</v>
+        <v>-1.299564418421171</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.02506705848295032</v>
+        <v>0.02153140570085904</v>
       </c>
       <c r="C144" t="n">
-        <v>-1.083385374996112</v>
+        <v>-0.009006118004766936</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-1.287039130725079</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-0.5334348006330347</v>
+        <v>-0.6311555754602642</v>
       </c>
       <c r="B145" t="n">
-        <v>0.04048481595422873</v>
+        <v>-0.05196587403580816</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.492949984678806</v>
+        <v>-0.004974718729563061</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-0.6880961682256355</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-1.280754901309536</v>
+        <v>-1.609721031426007</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.07575704879934332</v>
+        <v>0.09214503110471996</v>
       </c>
       <c r="C146" t="n">
-        <v>-1.356511950108879</v>
+        <v>0.009376133805003893</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-1.508199866516283</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-0.8939432536995439</v>
+        <v>-1.059446711234488</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.0006634590862728573</v>
+        <v>-0.02772618955220469</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.8946067127858167</v>
+        <v>-0.04261325891613879</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-1.129786159702831</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-0.9156349575004913</v>
+        <v>-1.056227009165629</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.01913742809602634</v>
+        <v>-0.03431977824509744</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.9347723855965177</v>
+        <v>-0.08813081523907862</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-1.178677602649805</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.2348285822258393</v>
+        <v>0.3315516064891926</v>
       </c>
       <c r="B149" t="n">
-        <v>0.09561772571472615</v>
+        <v>-0.1132992685418577</v>
       </c>
       <c r="C149" t="n">
-        <v>0.3304463079405655</v>
+        <v>-0.001993766898754201</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.2162585710485807</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.03305855488043601</v>
+        <v>0.07475902321506912</v>
       </c>
       <c r="B150" t="n">
-        <v>0.09254282172555409</v>
+        <v>-0.1039081554550995</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1256013766059901</v>
+        <v>0.008019817000863232</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-0.02112931523916717</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-0.218332041828762</v>
+        <v>-0.2697060155504439</v>
       </c>
       <c r="B151" t="n">
-        <v>0.06277370875984492</v>
+        <v>-0.05194596559663617</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.1555583330689171</v>
+        <v>0.03613047513030043</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-0.2855215060167796</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>-0.4988721576673112</v>
+        <v>-0.6084175067838912</v>
       </c>
       <c r="B152" t="n">
-        <v>0.04608784579920619</v>
+        <v>-0.04203602398714923</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.4527843118681051</v>
+        <v>0.02148469183477594</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-0.6289688389362644</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-2.093529645345693</v>
+        <v>-2.630172302286631</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.2795754836020302</v>
+        <v>0.2818036415277818</v>
       </c>
       <c r="C153" t="n">
-        <v>-2.373105128947723</v>
+        <v>-0.06864353113880625</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-2.417012191897655</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-1.596209746151802</v>
+        <v>-1.973950389374955</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.1695904098981207</v>
+        <v>0.1545097978298108</v>
       </c>
       <c r="C154" t="n">
-        <v>-1.765800156049923</v>
+        <v>-0.06688764736148238</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-1.886328238906627</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-1.146928714784533</v>
+        <v>-1.438333802859085</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.04892054408154177</v>
+        <v>0.06410533256394949</v>
       </c>
       <c r="C155" t="n">
-        <v>-1.195849258866075</v>
+        <v>0.01461734362596396</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-1.359611126669171</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-0.4295317602916081</v>
+        <v>-0.5089938106452416</v>
       </c>
       <c r="B156" t="n">
-        <v>0.03699595763955483</v>
+        <v>-0.04499219655616078</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.3925358026520533</v>
+        <v>-0.0007421486623271767</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-0.5547281558637296</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-0.7683485095571697</v>
+        <v>-0.9531223374478994</v>
       </c>
       <c r="B157" t="n">
-        <v>0.01432165160880662</v>
+        <v>-0.004753012873891319</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.7540268579483631</v>
+        <v>0.02226653597702573</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-0.9356088143447649</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1.334529315932786</v>
+        <v>1.694623813277855</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0924398597399189</v>
+        <v>-0.1203654508368167</v>
       </c>
       <c r="C158" t="n">
-        <v>1.426969175672705</v>
+        <v>-0.02336672560602481</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.550891636835014</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.997907955712403</v>
+        <v>1.205659418952032</v>
       </c>
       <c r="B159" t="n">
-        <v>0.09166956835041291</v>
+        <v>-0.06325802551464102</v>
       </c>
       <c r="C159" t="n">
-        <v>1.089577524062816</v>
+        <v>0.06825388786167677</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.210655281299068</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-0.8300355843879419</v>
+        <v>-1.037529008413874</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.0003060519007529762</v>
+        <v>0.01411488964540449</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.8303416362886948</v>
+        <v>0.02513447200524636</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-0.9982796467632228</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-1.227503177889803</v>
+        <v>-1.556016929086752</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.06876026300302444</v>
+        <v>0.09491248487301616</v>
       </c>
       <c r="C161" t="n">
-        <v>-1.296263440892827</v>
+        <v>0.02688667397863476</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-1.434217770235101</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-0.9502116034860212</v>
+        <v>-1.153222821759502</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.004643618515847294</v>
+        <v>-0.005938962744612353</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.9548552220018685</v>
+        <v>-0.01490239372718296</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-1.174064178231297</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2.026522730114708</v>
+        <v>2.4710748252775</v>
       </c>
       <c r="B163" t="n">
-        <v>0.006948104999583622</v>
+        <v>0.006531932236565582</v>
       </c>
       <c r="C163" t="n">
-        <v>2.033470835114292</v>
+        <v>0.01631794951392507</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2.493924707027991</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2.221485877672397</v>
+        <v>2.734871933893616</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.02735235131530181</v>
+        <v>0.01736620887387584</v>
       </c>
       <c r="C164" t="n">
-        <v>2.194133526357096</v>
+        <v>-0.03192789173049108</v>
+      </c>
+      <c r="D164" t="n">
+        <v>2.720310251037001</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-0.7418274029654699</v>
+        <v>-0.893849694164394</v>
       </c>
       <c r="B165" t="n">
-        <v>0.02394965054673776</v>
+        <v>-0.03282812155188101</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.7178777524187321</v>
+        <v>-0.004753514008498779</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-0.9314313297247737</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>3.909766020791536</v>
+        <v>4.621736949492932</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.237535735000641</v>
+        <v>0.3338913715910132</v>
       </c>
       <c r="C166" t="n">
-        <v>3.672230285790895</v>
+        <v>0.07299586263956813</v>
+      </c>
+      <c r="D166" t="n">
+        <v>5.028624183723513</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.2402529084780572</v>
+        <v>0.2802739279114894</v>
       </c>
       <c r="B167" t="n">
-        <v>0.09822653402464906</v>
+        <v>-0.07232123160271892</v>
       </c>
       <c r="C167" t="n">
-        <v>0.3384794425027062</v>
+        <v>0.06884203482203295</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.2767947311308034</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-1.266087989344519</v>
+        <v>-1.585602056355015</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.07034112435900926</v>
+        <v>0.08299724372498324</v>
       </c>
       <c r="C168" t="n">
-        <v>-1.336429113703528</v>
+        <v>0.004866398795516231</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-1.497738413834515</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.99812586776062</v>
+        <v>1.227225517284083</v>
       </c>
       <c r="B169" t="n">
-        <v>0.06735225261577577</v>
+        <v>-0.0585259813974916</v>
       </c>
       <c r="C169" t="n">
-        <v>1.065478120376396</v>
+        <v>0.02980700380164652</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.198506539688238</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1.334387020191522</v>
+        <v>1.663427080827192</v>
       </c>
       <c r="B170" t="n">
-        <v>0.00823424257871077</v>
+        <v>-0.02587481645977461</v>
       </c>
       <c r="C170" t="n">
-        <v>1.342621262770232</v>
+        <v>-0.03086333789059773</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.606688926476819</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.2316052462267231</v>
+        <v>0.2903715080528072</v>
       </c>
       <c r="B171" t="n">
-        <v>0.1068741962759831</v>
+        <v>-0.09509107096121823</v>
       </c>
       <c r="C171" t="n">
-        <v>0.3384794425027062</v>
+        <v>0.04862640341172262</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.2439068405033116</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-0.7466484039443385</v>
+        <v>-0.9215958608103053</v>
       </c>
       <c r="B172" t="n">
-        <v>0.02073751696346616</v>
+        <v>-0.01383405911731814</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.7259108869808724</v>
+        <v>0.01973256932447233</v>
+      </c>
+      <c r="D172" t="n">
+        <v>-0.9156973506031512</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-0.3200060858774756</v>
+        <v>-0.4069928808447987</v>
       </c>
       <c r="B173" t="n">
-        <v>0.03993416709538507</v>
+        <v>-0.02329120680147097</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.2800719187820906</v>
+        <v>0.03933238053418838</v>
+      </c>
+      <c r="D173" t="n">
+        <v>-0.3909517071120813</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.4325764410822505</v>
+        <v>0.6038756738544461</v>
       </c>
       <c r="B174" t="n">
-        <v>0.1027147981928911</v>
+        <v>-0.1413579536250208</v>
       </c>
       <c r="C174" t="n">
-        <v>0.5352912392751416</v>
+        <v>-0.03440196710169596</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.4281157531277293</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-1.179488675317644</v>
+        <v>-1.480610075596929</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.0444765545159216</v>
+        <v>0.06205804752892395</v>
       </c>
       <c r="C175" t="n">
-        <v>-1.223965229833566</v>
+        <v>0.01985934889560366</v>
+      </c>
+      <c r="D175" t="n">
+        <v>-1.398692679172402</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-1.31029263426798</v>
+        <v>-1.652167047775679</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.08236842137052998</v>
+        <v>0.1023594880778483</v>
       </c>
       <c r="C176" t="n">
-        <v>-1.39266105563851</v>
+        <v>0.01339134816794075</v>
+      </c>
+      <c r="D176" t="n">
+        <v>-1.53641621152989</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-1.955896961896746</v>
+        <v>-2.490410250829142</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.2356593259466089</v>
+        <v>0.2663472570352982</v>
       </c>
       <c r="C177" t="n">
-        <v>-2.191556287843355</v>
+        <v>-0.0108261443489441</v>
+      </c>
+      <c r="D177" t="n">
+        <v>-2.234889138142788</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-1.557042053832654</v>
+        <v>-1.922418436209755</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.1392714882547561</v>
+        <v>0.1262422872601367</v>
       </c>
       <c r="C178" t="n">
-        <v>-1.69631354208741</v>
+        <v>-0.05507381911874396</v>
+      </c>
+      <c r="D178" t="n">
+        <v>-1.851249968068362</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.8264688926073975</v>
+        <v>1.087211873918774</v>
       </c>
       <c r="B179" t="n">
-        <v>0.1104790747747547</v>
+        <v>-0.1477878669122516</v>
       </c>
       <c r="C179" t="n">
-        <v>0.9369479673821521</v>
+        <v>-0.03146725975335728</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.9079567472531652</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-0.4827862843153023</v>
+        <v>-0.6310198946042334</v>
       </c>
       <c r="B180" t="n">
-        <v>0.03401853972826727</v>
+        <v>-0.0002377530712957374</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.4487677445870351</v>
+        <v>0.06580041617874578</v>
+      </c>
+      <c r="D180" t="n">
+        <v>-0.5654572314967833</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-0.5583470398291376</v>
+        <v>-0.7098298683870227</v>
       </c>
       <c r="B181" t="n">
-        <v>0.02924794962070066</v>
+        <v>-0.006591898030580847</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.5290990902084369</v>
+        <v>0.04681796334456581</v>
+      </c>
+      <c r="D181" t="n">
+        <v>-0.6696038030730377</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>5.837289572698777</v>
+        <v>6.908372539210018</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.5785152108851903</v>
+        <v>0.6821912019185488</v>
       </c>
       <c r="C182" t="n">
-        <v>5.258774361813587</v>
+        <v>-0.0195691971780843</v>
+      </c>
+      <c r="D182" t="n">
+        <v>7.570994543950483</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2.717803595468793</v>
+        <v>3.425742420683974</v>
       </c>
       <c r="B183" t="n">
-        <v>0.07881502304881803</v>
+        <v>-0.1334381319738374</v>
       </c>
       <c r="C183" t="n">
-        <v>2.796618618517611</v>
+        <v>-0.07521649788781355</v>
+      </c>
+      <c r="D183" t="n">
+        <v>3.217087790822323</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.5405044505166307</v>
+        <v>0.6609834827077048</v>
       </c>
       <c r="B184" t="n">
-        <v>0.09118440350419277</v>
+        <v>-0.07539094667840027</v>
       </c>
       <c r="C184" t="n">
-        <v>0.6316888540208234</v>
+        <v>0.049477508763204</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.6350700447925085</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-1.054290546816247</v>
+        <v>-1.299391297602339</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.03712796274200534</v>
+        <v>0.03530994803872787</v>
       </c>
       <c r="C185" t="n">
-        <v>-1.091418509558252</v>
+        <v>-0.009701266456922469</v>
+      </c>
+      <c r="D185" t="n">
+        <v>-1.273782616020533</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.3435358199223674</v>
+        <v>0.4460111337677715</v>
       </c>
       <c r="B186" t="n">
-        <v>0.1194572082935116</v>
+        <v>-0.1193485949887663</v>
       </c>
       <c r="C186" t="n">
-        <v>0.462993028215879</v>
+        <v>0.03303420737277424</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.3596967461517794</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-1.491328889667343</v>
+        <v>-1.888783142802644</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.1342930682732329</v>
+        <v>0.1570843118294989</v>
       </c>
       <c r="C187" t="n">
-        <v>-1.625621957940576</v>
+        <v>0.003727414946021078</v>
+      </c>
+      <c r="D187" t="n">
+        <v>-1.727971416027124</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1.616507997386056</v>
+        <v>1.95325623608781</v>
       </c>
       <c r="B188" t="n">
-        <v>0.06350491699406578</v>
+        <v>-0.03059956441517855</v>
       </c>
       <c r="C188" t="n">
-        <v>1.680012914380121</v>
+        <v>0.0651980199196955</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.987854691592327</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-0.9572391959259131</v>
+        <v>-1.192777708621323</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.01368229520023541</v>
+        <v>0.02477673837866164</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.9709214911261486</v>
+        <v>0.01741062729437694</v>
+      </c>
+      <c r="D189" t="n">
+        <v>-1.150590342948284</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-0.9198610350178947</v>
+        <v>-1.148224722315351</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.01089478329755276</v>
+        <v>0.02340725651456621</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.9307558183154475</v>
+        <v>0.0203518638850003</v>
+      </c>
+      <c r="D190" t="n">
+        <v>-1.104465601915785</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-0.751469404923207</v>
+        <v>-0.9260112063611532</v>
       </c>
       <c r="B191" t="n">
-        <v>0.01752538338019474</v>
+        <v>-0.01223205761795837</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.7339440215430123</v>
+        <v>0.01624303919908736</v>
+      </c>
+      <c r="D191" t="n">
+        <v>-0.9220002247800242</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-0.07185842939512235</v>
+        <v>-0.001310050110366723</v>
       </c>
       <c r="B192" t="n">
-        <v>0.1090953258175705</v>
+        <v>-0.1572412715822672</v>
       </c>
       <c r="C192" t="n">
-        <v>0.03723689642244818</v>
+        <v>-0.04603658876276755</v>
+      </c>
+      <c r="D192" t="n">
+        <v>-0.2045879104554015</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-0.5691956923335728</v>
+        <v>-0.701312004420902</v>
       </c>
       <c r="B193" t="n">
-        <v>0.02403033300085511</v>
+        <v>-0.01844731813941794</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.5451653593327177</v>
+        <v>0.01790521006677421</v>
+      </c>
+      <c r="D193" t="n">
+        <v>-0.7018541124935457</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-1.622752977514795</v>
+        <v>-2.068187708190477</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.1474654025443045</v>
+        <v>0.1817182335739916</v>
       </c>
       <c r="C194" t="n">
-        <v>-1.7702183800591</v>
+        <v>0.01887955248762815</v>
+      </c>
+      <c r="D194" t="n">
+        <v>-1.867589922128857</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-0.715884416211468</v>
+        <v>-0.8417703519465933</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.001993336207264087</v>
+        <v>-0.02592322677822231</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.7178777524187321</v>
+        <v>-0.04287766321217182</v>
+      </c>
+      <c r="D195" t="n">
+        <v>-0.9105712419369875</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.1803534046356413</v>
+        <v>0.3480714777524254</v>
       </c>
       <c r="B196" t="n">
-        <v>0.1139437977752932</v>
+        <v>-0.1909964604501156</v>
       </c>
       <c r="C196" t="n">
-        <v>0.2942972024109345</v>
+        <v>-0.09206419208306248</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.06501082521924732</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>-0.5229799631656156</v>
+        <v>-0.6514403651587096</v>
       </c>
       <c r="B197" t="n">
-        <v>0.03404654576787953</v>
+        <v>-0.02182065113622237</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.488933417397736</v>
+        <v>0.03128252297548494</v>
+      </c>
+      <c r="D197" t="n">
+        <v>-0.641978493319447</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-0.2044639623536216</v>
+        <v>-0.1986363116753817</v>
       </c>
       <c r="B198" t="n">
-        <v>0.06095533112791456</v>
+        <v>-0.09069325216215891</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.143508631225707</v>
+        <v>-0.02968996331143176</v>
+      </c>
+      <c r="D198" t="n">
+        <v>-0.3190195271489724</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1.536129041497313</v>
+        <v>1.859075720571296</v>
       </c>
       <c r="B199" t="n">
-        <v>0.05150282541819593</v>
+        <v>-0.02377609195048358</v>
       </c>
       <c r="C199" t="n">
-        <v>1.587631866915509</v>
+        <v>0.05373292461514606</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1.889032553235959</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>2.006414688273706</v>
+        <v>2.48325911046079</v>
       </c>
       <c r="B200" t="n">
-        <v>0.02303957955951479</v>
+        <v>-0.03458967963551825</v>
       </c>
       <c r="C200" t="n">
-        <v>2.029454267833221</v>
+        <v>-0.01927665779703534</v>
+      </c>
+      <c r="D200" t="n">
+        <v>2.429392773028237</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.04029565755666136</v>
+        <v>0.09303946320011894</v>
       </c>
       <c r="B201" t="n">
-        <v>0.08932228633039875</v>
+        <v>-0.1081831972004463</v>
       </c>
       <c r="C201" t="n">
-        <v>0.1296179438870601</v>
+        <v>-0.004982740027845233</v>
+      </c>
+      <c r="D201" t="n">
+        <v>-0.02012647402817257</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>-0.7709573178670923</v>
+        <v>-0.9488318565107328</v>
       </c>
       <c r="B202" t="n">
-        <v>0.008897325356589192</v>
+        <v>-0.005741548967890895</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.7620599925105032</v>
+        <v>0.01041207344032746</v>
+      </c>
+      <c r="D202" t="n">
+        <v>-0.9441613320382962</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1.28207922560689</v>
+        <v>1.597059892529293</v>
       </c>
       <c r="B203" t="n">
-        <v>0.08865800813083302</v>
+        <v>-0.09242852005773684</v>
       </c>
       <c r="C203" t="n">
-        <v>1.370737233737723</v>
+        <v>0.01459786414390089</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1.519229236615457</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>3.911771503828109</v>
+        <v>4.785270275702427</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.2315080834750747</v>
+        <v>0.2087114947518142</v>
       </c>
       <c r="C204" t="n">
-        <v>3.680263420353035</v>
+        <v>-0.1169501702853167</v>
+      </c>
+      <c r="D204" t="n">
+        <v>4.877031600168924</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>-0.1785321780154644</v>
+        <v>-0.1553495669914748</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0510898159140382</v>
+        <v>-0.09086994897800252</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.1274423621014262</v>
+        <v>-0.04875380013214178</v>
+      </c>
+      <c r="D205" t="n">
+        <v>-0.2949733161016191</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>-0.6807268497842791</v>
+        <v>-0.8144817145038959</v>
       </c>
       <c r="B206" t="n">
-        <v>0.01506447201945857</v>
+        <v>-0.02854923716235644</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.6656623777648205</v>
+        <v>-0.01492117001452932</v>
+      </c>
+      <c r="D206" t="n">
+        <v>-0.8579521216807817</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.3234697871407842</v>
+        <v>0.426234175481953</v>
       </c>
       <c r="B207" t="n">
-        <v>0.07525816457797312</v>
+        <v>-0.08550929329739423</v>
       </c>
       <c r="C207" t="n">
-        <v>0.3987279517187573</v>
+        <v>0.003824128327404081</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.3445490105119628</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>-1.576742837737626</v>
+        <v>-1.978477785238796</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.1308170927367804</v>
+        <v>0.142838374134821</v>
       </c>
       <c r="C208" t="n">
-        <v>-1.707559930474406</v>
+        <v>-0.0122942350271423</v>
+      </c>
+      <c r="D208" t="n">
+        <v>-1.847933646131118</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1.080515907893859</v>
+        <v>1.303998471833093</v>
       </c>
       <c r="B209" t="n">
-        <v>0.07734325994714918</v>
+        <v>-0.04882813247749725</v>
       </c>
       <c r="C209" t="n">
-        <v>1.157859167841008</v>
+        <v>0.06403075771768864</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1.319201097073284</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>-0.4566701951764631</v>
+        <v>-0.4904129844983022</v>
       </c>
       <c r="B210" t="n">
-        <v>0.04806812340012898</v>
+        <v>-0.09306181463239432</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.4086020717763341</v>
+        <v>-0.05699404279427741</v>
+      </c>
+      <c r="D210" t="n">
+        <v>-0.640468841924974</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.3714926915248268</v>
+        <v>0.4509202201973342</v>
       </c>
       <c r="B211" t="n">
-        <v>0.08748376940998227</v>
+        <v>-0.07032663215191003</v>
       </c>
       <c r="C211" t="n">
-        <v>0.458976460934809</v>
+        <v>0.05122737446836739</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.4318209625137916</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>2.573148360667084</v>
+        <v>3.117146497929894</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0186253265159518</v>
+        <v>0.01524176069787324</v>
       </c>
       <c r="C212" t="n">
-        <v>2.591773687183035</v>
+        <v>0.05046273119980529</v>
+      </c>
+      <c r="D212" t="n">
+        <v>3.182850989827573</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>-0.9156461599163365</v>
+        <v>-1.139059253235897</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.00305995655590118</v>
+        <v>0.01379180313323785</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.9187061164722377</v>
+        <v>0.01970925005764611</v>
+      </c>
+      <c r="D213" t="n">
+        <v>-1.105558200045013</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>6.516786793585968</v>
+        <v>7.614739049083391</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.9005379437571415</v>
+        <v>1.050360367573854</v>
       </c>
       <c r="C214" t="n">
-        <v>5.616248849828827</v>
+        <v>-0.03974353706312148</v>
+      </c>
+      <c r="D214" t="n">
+        <v>8.625355879594125</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1.250739918640283</v>
+        <v>1.557174869551648</v>
       </c>
       <c r="B215" t="n">
-        <v>0.07179850772459941</v>
+        <v>-0.0770864153490288</v>
       </c>
       <c r="C215" t="n">
-        <v>1.322538426364883</v>
+        <v>0.007457316914975622</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1.487545771117595</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>-0.07627441292113057</v>
+        <v>-0.0406360898965249</v>
       </c>
       <c r="B216" t="n">
-        <v>0.101461607500368</v>
+        <v>-0.1254969690606607</v>
       </c>
       <c r="C216" t="n">
-        <v>0.02518719457923742</v>
+        <v>-0.009417471373913307</v>
+      </c>
+      <c r="D216" t="n">
+        <v>-0.1755505303310989</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>-0.2065002520337688</v>
+        <v>-0.1923820720499947</v>
       </c>
       <c r="B217" t="n">
-        <v>0.09914072633769269</v>
+        <v>-0.1295814424691579</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.1073595256960762</v>
+        <v>-0.01991104138641611</v>
+      </c>
+      <c r="D217" t="n">
+        <v>-0.3418745559055688</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>-0.8971581878867766</v>
+        <v>-1.080879015954104</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.001465092180110034</v>
+        <v>-0.01401201630668299</v>
       </c>
       <c r="C218" t="n">
-        <v>-0.8986232800668866</v>
+        <v>-0.02206028864364096</v>
+      </c>
+      <c r="D218" t="n">
+        <v>-1.116951320904428</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-1.459788474276287</v>
+        <v>-1.832307516489914</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.1176346762914486</v>
+        <v>0.1297291485244573</v>
       </c>
       <c r="C219" t="n">
-        <v>-1.577423150567735</v>
+        <v>-0.008837011109755218</v>
+      </c>
+      <c r="D219" t="n">
+        <v>-1.711415379075212</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>2.295837182035574</v>
+        <v>2.771755126038898</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.01735574277600586</v>
+        <v>0.04943896761613514</v>
       </c>
       <c r="C220" t="n">
-        <v>2.278481439259568</v>
+        <v>0.03832628624017196</v>
+      </c>
+      <c r="D220" t="n">
+        <v>2.859520379895205</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>2.227535934029654</v>
+        <v>2.675483196234516</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.05750181135897823</v>
+        <v>0.09272624622811383</v>
       </c>
       <c r="C221" t="n">
-        <v>2.170034122670676</v>
+        <v>0.03216491094474299</v>
+      </c>
+      <c r="D221" t="n">
+        <v>2.800374353407373</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>-0.2687850509299674</v>
+        <v>-0.3165696185835222</v>
       </c>
       <c r="B222" t="n">
-        <v>0.07707761233141944</v>
+        <v>-0.07530411359036882</v>
       </c>
       <c r="C222" t="n">
-        <v>-0.191707438598548</v>
+        <v>0.02583322038329253</v>
+      </c>
+      <c r="D222" t="n">
+        <v>-0.3660405117905984</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-0.3021438439529546</v>
+        <v>-0.3268935475069791</v>
       </c>
       <c r="B223" t="n">
-        <v>0.07428729982477568</v>
+        <v>-0.09577028720997903</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.2278565441281789</v>
+        <v>-0.01225115484179787</v>
+      </c>
+      <c r="D223" t="n">
+        <v>-0.434914989558756</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>-1.480094823937776</v>
+        <v>-1.847192891618563</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.1053614611920988</v>
+        <v>0.1118412711542411</v>
       </c>
       <c r="C224" t="n">
-        <v>-1.585456285129875</v>
+        <v>-0.01429068836790257</v>
+      </c>
+      <c r="D224" t="n">
+        <v>-1.749642308832225</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.5398871222234757</v>
+        <v>0.6938417971690991</v>
       </c>
       <c r="B225" t="n">
-        <v>0.1118845682026986</v>
+        <v>-0.1179938416290184</v>
       </c>
       <c r="C225" t="n">
-        <v>0.6517716904261742</v>
+        <v>0.02015853345827342</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.5960064889983542</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>-0.3903492247714656</v>
+        <v>-0.4950980253109538</v>
       </c>
       <c r="B226" t="n">
-        <v>0.0460122294922533</v>
+        <v>-0.02713586954412842</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.3443369952792123</v>
+        <v>0.04491524910376244</v>
+      </c>
+      <c r="D226" t="n">
+        <v>-0.4773186457513198</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.0151879111440315</v>
+        <v>0.02538265199878029</v>
       </c>
       <c r="B227" t="n">
-        <v>0.07024779265125768</v>
+        <v>-0.06455869273456587</v>
       </c>
       <c r="C227" t="n">
-        <v>0.08543570379528918</v>
+        <v>0.02915187840287457</v>
+      </c>
+      <c r="D227" t="n">
+        <v>-0.01002416233291101</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>-1.394696559249677</v>
+        <v>-1.741763286495185</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.08632897657237588</v>
+        <v>0.09526701349946384</v>
       </c>
       <c r="C228" t="n">
-        <v>-1.481025535822053</v>
+        <v>-0.005212430297309249</v>
+      </c>
+      <c r="D228" t="n">
+        <v>-1.65170870329303</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.2348145792060334</v>
+        <v>0.3222868641936543</v>
       </c>
       <c r="B229" t="n">
-        <v>0.1157145651398829</v>
+        <v>-0.1234379155979215</v>
       </c>
       <c r="C229" t="n">
-        <v>0.3505291443459163</v>
+        <v>0.01976199911491789</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.2186109477106506</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>-0.6214418736310576</v>
+        <v>-0.7599107735957356</v>
       </c>
       <c r="B230" t="n">
-        <v>0.01602800508228816</v>
+        <v>-0.01579363136805554</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.6054138685487694</v>
+        <v>0.007206552103648403</v>
+      </c>
+      <c r="D230" t="n">
+        <v>-0.7684978528601427</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>-0.5655925443172467</v>
+        <v>-0.6212050732870703</v>
       </c>
       <c r="B231" t="n">
-        <v>0.04452658867094979</v>
+        <v>-0.09223687702693169</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.5210659556462969</v>
+        <v>-0.06197989550553672</v>
+      </c>
+      <c r="D231" t="n">
+        <v>-0.7754218458195388</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1.069845958982184</v>
+        <v>1.383418764175788</v>
       </c>
       <c r="B232" t="n">
-        <v>0.1040794779831046</v>
+        <v>-0.140455737243624</v>
       </c>
       <c r="C232" t="n">
-        <v>1.173925436965289</v>
+        <v>-0.03267690800156867</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1.210286118930596</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>-1.085034930321388</v>
+        <v>-1.366627078617114</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.04253268476649434</v>
+        <v>0.06187717359338975</v>
       </c>
       <c r="C233" t="n">
-        <v>-1.127567615087883</v>
+        <v>0.02290763837010467</v>
+      </c>
+      <c r="D233" t="n">
+        <v>-1.281842266653619</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>-1.123016416502756</v>
+        <v>-1.420718112019506</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.04471687139582808</v>
+        <v>0.06929339963373736</v>
       </c>
       <c r="C234" t="n">
-        <v>-1.167733287898584</v>
+        <v>0.03083766169009558</v>
+      </c>
+      <c r="D234" t="n">
+        <v>-1.320587050695674</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>2.617411818273731</v>
+        <v>3.146012608742929</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.0537541020581847</v>
+        <v>0.09557168305137603</v>
       </c>
       <c r="C235" t="n">
-        <v>2.563657716215546</v>
+        <v>0.0424263442730093</v>
+      </c>
+      <c r="D235" t="n">
+        <v>3.284010636067315</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>-1.6705739332932</v>
+        <v>-2.119613015652062</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.1610979261662725</v>
+        <v>0.1878456542146735</v>
       </c>
       <c r="C236" t="n">
-        <v>-1.831671859459473</v>
+        <v>0.003088686947197104</v>
+      </c>
+      <c r="D236" t="n">
+        <v>-1.928678674490191</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>-0.1230878661545143</v>
+        <v>-0.1521910082032685</v>
       </c>
       <c r="B237" t="n">
-        <v>0.08400998423663</v>
+        <v>-0.0703869688264178</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.03907788191788435</v>
+        <v>0.04634436225650395</v>
+      </c>
+      <c r="D237" t="n">
+        <v>-0.1762336147731824</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>3.865538971036385</v>
+        <v>4.619006567234191</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.2174080889319105</v>
+        <v>0.2783956895012061</v>
       </c>
       <c r="C238" t="n">
-        <v>3.648130882104475</v>
+        <v>0.02201225511712494</v>
+      </c>
+      <c r="D238" t="n">
+        <v>4.919414511852522</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>2.585242872173674</v>
+        <v>3.07455928446392</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.0336348578013385</v>
+        <v>0.102347441381331</v>
       </c>
       <c r="C239" t="n">
-        <v>2.551608014372336</v>
+        <v>0.09154844013304564</v>
+      </c>
+      <c r="D239" t="n">
+        <v>3.268455165978296</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>-0.04370324997217458</v>
+        <v>-0.02170661603125184</v>
       </c>
       <c r="B240" t="n">
-        <v>0.08094014639462278</v>
+        <v>-0.09240964114784325</v>
       </c>
       <c r="C240" t="n">
-        <v>0.03723689642244821</v>
+        <v>0.004818045839587706</v>
+      </c>
+      <c r="D240" t="n">
+        <v>-0.1092982113395074</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1.203669344903226</v>
+        <v>1.492673820801255</v>
       </c>
       <c r="B241" t="n">
-        <v>0.1349353505859372</v>
+        <v>-0.1255877587793484</v>
       </c>
       <c r="C241" t="n">
-        <v>1.338604695489163</v>
+        <v>0.0491953053043271</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1.416281367326234</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>-0.2579223954057264</v>
+        <v>-0.3196318539022784</v>
       </c>
       <c r="B242" t="n">
-        <v>0.06219838952610835</v>
+        <v>-0.0504705262727816</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.195724005879618</v>
+        <v>0.03755765474265416</v>
+      </c>
+      <c r="D242" t="n">
+        <v>-0.3325447254324058</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>-0.7016281229072343</v>
+        <v>-0.8905782239154525</v>
       </c>
       <c r="B243" t="n">
-        <v>0.01588290873706295</v>
+        <v>0.008356608171427946</v>
       </c>
       <c r="C243" t="n">
-        <v>-0.6857452141701713</v>
+        <v>0.04606884563574225</v>
+      </c>
+      <c r="D243" t="n">
+        <v>-0.8361527701082824</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>-1.101721328342785</v>
+        <v>-1.328569424021431</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.03387942130723787</v>
+        <v>0.01090329133743245</v>
       </c>
       <c r="C244" t="n">
-        <v>-1.135600749650023</v>
+        <v>-0.0426352203695796</v>
+      </c>
+      <c r="D244" t="n">
+        <v>-1.360301353053578</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>-0.2062683369657456</v>
+        <v>-0.24987505413943</v>
       </c>
       <c r="B245" t="n">
-        <v>0.05472657117789859</v>
+        <v>-0.04886937775553391</v>
       </c>
       <c r="C245" t="n">
-        <v>-0.1515417657878471</v>
+        <v>0.02579398806080016</v>
+      </c>
+      <c r="D245" t="n">
+        <v>-0.2729504438341637</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>2.064674518076951</v>
+        <v>2.568940335646361</v>
       </c>
       <c r="B246" t="n">
-        <v>0.05314422993981182</v>
+        <v>-0.07066088383012413</v>
       </c>
       <c r="C246" t="n">
-        <v>2.117818748016763</v>
+        <v>-0.02049035746252174</v>
+      </c>
+      <c r="D246" t="n">
+        <v>2.477789094353715</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>-1.370373642307117</v>
+        <v>-1.719546724679869</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.0945856243906552</v>
+        <v>0.1079613509786733</v>
       </c>
       <c r="C247" t="n">
-        <v>-1.464959266697772</v>
+        <v>-0.0005197738196794922</v>
+      </c>
+      <c r="D247" t="n">
+        <v>-1.612105147520876</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>-0.4140604146287931</v>
+        <v>-0.524453395573738</v>
       </c>
       <c r="B248" t="n">
-        <v>0.04160744838208986</v>
+        <v>-0.023218064074646</v>
       </c>
       <c r="C248" t="n">
-        <v>-0.3724529662467032</v>
+        <v>0.04296034552578984</v>
+      </c>
+      <c r="D248" t="n">
+        <v>-0.5047111141225942</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>-0.5354430842735698</v>
+        <v>-0.6039911552136916</v>
       </c>
       <c r="B249" t="n">
-        <v>0.03847653231369369</v>
+        <v>-0.07235147032610878</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.4969665519598761</v>
+        <v>-0.04156198326641762</v>
+      </c>
+      <c r="D249" t="n">
+        <v>-0.717904608806218</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>-1.317529736944205</v>
+        <v>-1.6456882490476</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.07914788597537462</v>
+        <v>0.08817764883073489</v>
       </c>
       <c r="C250" t="n">
-        <v>-1.39667762291958</v>
+        <v>-0.003294500922422661</v>
+      </c>
+      <c r="D250" t="n">
+        <v>-1.560805101139288</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>-1.023551764519027</v>
+        <v>-1.266191480929361</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.02368450494745386</v>
+        <v>0.0272969428774043</v>
       </c>
       <c r="C251" t="n">
-        <v>-1.047236269466481</v>
+        <v>0.002760432617381692</v>
+      </c>
+      <c r="D251" t="n">
+        <v>-1.236134105434575</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>2.79426680581907</v>
+        <v>3.397460331262013</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.05789669651750968</v>
+        <v>0.07348178754498952</v>
       </c>
       <c r="C252" t="n">
-        <v>2.736370109301561</v>
+        <v>-0.001593391392079332</v>
+      </c>
+      <c r="D252" t="n">
+        <v>3.469348727414923</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>-1.025356139131151</v>
+        <v>-1.281719782941782</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.02991326489746977</v>
+        <v>0.04250031585259664</v>
       </c>
       <c r="C253" t="n">
-        <v>-1.055269404028621</v>
+        <v>0.01542456747172224</v>
+      </c>
+      <c r="D253" t="n">
+        <v>-1.223794899617463</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>2.233513174683918</v>
+        <v>2.744755899755075</v>
       </c>
       <c r="B254" t="n">
-        <v>0.01685229360815938</v>
+        <v>-0.01645940419763511</v>
       </c>
       <c r="C254" t="n">
-        <v>2.250365468292077</v>
+        <v>-0.002656034505529315</v>
+      </c>
+      <c r="D254" t="n">
+        <v>2.72564046105191</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1.186821046912837</v>
+        <v>1.469327864474536</v>
       </c>
       <c r="B255" t="n">
-        <v>0.08751857207920462</v>
+        <v>-0.08341628384584748</v>
       </c>
       <c r="C255" t="n">
-        <v>1.274339618992041</v>
+        <v>0.02728160480517981</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1.413193185433869</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>2.102871115702575</v>
+        <v>2.538184349279332</v>
       </c>
       <c r="B256" t="n">
-        <v>0.03503046871953958</v>
+        <v>0.002572033026700447</v>
       </c>
       <c r="C256" t="n">
-        <v>2.137901584422114</v>
+        <v>0.06286031112457842</v>
+      </c>
+      <c r="D256" t="n">
+        <v>2.603616693430611</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>-0.1391569358827557</v>
+        <v>-0.1262796126070359</v>
       </c>
       <c r="B257" t="n">
-        <v>0.07196308299738122</v>
+        <v>-0.0941978469619882</v>
       </c>
       <c r="C257" t="n">
-        <v>-0.06719385288537447</v>
+        <v>-0.01471501475862632</v>
+      </c>
+      <c r="D257" t="n">
+        <v>-0.2351924743276504</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>2.199375153398783</v>
+        <v>2.785878060982256</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.02130789616596803</v>
+        <v>-0.04601303878481533</v>
       </c>
       <c r="C258" t="n">
-        <v>2.178067257232815</v>
+        <v>-0.1223466157950917</v>
+      </c>
+      <c r="D258" t="n">
+        <v>2.617518406402349</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.3569988819446476</v>
+        <v>0.5588955503654588</v>
       </c>
       <c r="B259" t="n">
-        <v>0.1220604153955122</v>
+        <v>-0.1933848128532793</v>
       </c>
       <c r="C259" t="n">
-        <v>0.4790592973401598</v>
+        <v>-0.08117337644332318</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.2843373610688563</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.5463477972415148</v>
+        <v>0.8799803687327161</v>
       </c>
       <c r="B260" t="n">
-        <v>0.06927478765502859</v>
+        <v>-0.2147271835227597</v>
       </c>
       <c r="C260" t="n">
-        <v>0.6156225848965434</v>
+        <v>-0.2161673542270387</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.4490858309829178</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.4627231005219657</v>
+        <v>0.6570420964268396</v>
       </c>
       <c r="B261" t="n">
-        <v>0.1006841097206661</v>
+        <v>-0.151682513850821</v>
       </c>
       <c r="C261" t="n">
-        <v>0.5634072102426317</v>
+        <v>-0.05496481408011792</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.4503947684959007</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>2.514902533883645</v>
+        <v>3.026683908462221</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.03157616328950198</v>
+        <v>0.07192234251157296</v>
       </c>
       <c r="C262" t="n">
-        <v>2.483326370594143</v>
+        <v>0.04676312601532344</v>
+      </c>
+      <c r="D262" t="n">
+        <v>3.145369376989118</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1.206716777913543</v>
+        <v>1.43795018810055</v>
       </c>
       <c r="B263" t="n">
-        <v>0.08770567748384844</v>
+        <v>-0.04197742521504805</v>
       </c>
       <c r="C263" t="n">
-        <v>1.294422455397392</v>
+        <v>0.09421939625403669</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1.490192159139539</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1.224230014464428</v>
+        <v>1.53312054973624</v>
       </c>
       <c r="B264" t="n">
-        <v>0.04609303724654253</v>
+        <v>-0.06162888614079719</v>
       </c>
       <c r="C264" t="n">
-        <v>1.27032305171097</v>
+        <v>-0.01626960970570326</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1.45522205388974</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.5063412237958451</v>
+        <v>0.6045330566998299</v>
       </c>
       <c r="B265" t="n">
-        <v>0.08919852469534754</v>
+        <v>-0.06288983672382242</v>
       </c>
       <c r="C265" t="n">
-        <v>0.5955397484911926</v>
+        <v>0.06594846398344921</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.6075916839594567</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1.1649310352914</v>
+        <v>1.418099901885208</v>
       </c>
       <c r="B266" t="n">
-        <v>0.06522634360886978</v>
+        <v>-0.04636708693944094</v>
       </c>
       <c r="C266" t="n">
-        <v>1.23015737890027</v>
+        <v>0.0447335045321034</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1.41646631947787</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>2.862702482815129</v>
+        <v>3.376886422260985</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.2106802864160404</v>
+        <v>0.2809305969200935</v>
       </c>
       <c r="C267" t="n">
-        <v>2.652022196399089</v>
+        <v>0.04246895949253747</v>
+      </c>
+      <c r="D267" t="n">
+        <v>3.700285978673616</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>-1.328777805693579</v>
+        <v>-1.624646222417943</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.08798265363135224</v>
+        <v>0.06968609956797725</v>
       </c>
       <c r="C268" t="n">
-        <v>-1.416760459324931</v>
+        <v>-0.04973119551751626</v>
+      </c>
+      <c r="D268" t="n">
+        <v>-1.604691318367482</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>-0.2967223183046983</v>
+        <v>-0.3565028977663184</v>
       </c>
       <c r="B269" t="n">
-        <v>0.08091547601972951</v>
+        <v>-0.07435401662488994</v>
       </c>
       <c r="C269" t="n">
-        <v>-0.2158068422849688</v>
+        <v>0.03473181426860529</v>
+      </c>
+      <c r="D269" t="n">
+        <v>-0.396125100122603</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>-0.5394596515546402</v>
+        <v>-0.6684590466229614</v>
       </c>
       <c r="B270" t="n">
-        <v>0.03445996503262336</v>
+        <v>-0.02456512814480909</v>
       </c>
       <c r="C270" t="n">
-        <v>-0.5049996865220168</v>
+        <v>0.02771074394272716</v>
+      </c>
+      <c r="D270" t="n">
+        <v>-0.6653134308250432</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>-1.309703312014437</v>
+        <v>-1.603803683166604</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.06287490721872205</v>
+        <v>0.05032515491786911</v>
       </c>
       <c r="C271" t="n">
-        <v>-1.372578219233159</v>
+        <v>-0.03338816530642899</v>
+      </c>
+      <c r="D271" t="n">
+        <v>-1.586866693555164</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>-0.01214883156131187</v>
+        <v>-0.04952760140624684</v>
       </c>
       <c r="B272" t="n">
-        <v>0.07750169895125024</v>
+        <v>-0.03988044364646656</v>
       </c>
       <c r="C272" t="n">
-        <v>0.06535286738993837</v>
+        <v>0.08268577304701608</v>
+      </c>
+      <c r="D272" t="n">
+        <v>-0.006722272005697333</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>-1.106545129925615</v>
+        <v>-1.372976468433725</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.03307218700547855</v>
+        <v>0.0389082589543505</v>
       </c>
       <c r="C273" t="n">
-        <v>-1.139617316931094</v>
+        <v>0.003957966748878068</v>
+      </c>
+      <c r="D273" t="n">
+        <v>-1.330110242730496</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>3.212345479753435</v>
+        <v>3.938467860645277</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.1506334206851965</v>
+        <v>0.1313692344132962</v>
       </c>
       <c r="C274" t="n">
-        <v>3.061712059068239</v>
+        <v>-0.08564200950502451</v>
+      </c>
+      <c r="D274" t="n">
+        <v>3.98419508555355</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>-1.614714801865525</v>
+        <v>-2.043295531887559</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.1466671301752205</v>
+        <v>0.1698415352557991</v>
       </c>
       <c r="C275" t="n">
-        <v>-1.761381932040746</v>
+        <v>0.001258355919282915</v>
+      </c>
+      <c r="D275" t="n">
+        <v>-1.872195640712476</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1.455526572352431</v>
+        <v>1.740956399581377</v>
       </c>
       <c r="B276" t="n">
-        <v>0.07185678534702683</v>
+        <v>-0.02673395447880413</v>
       </c>
       <c r="C276" t="n">
-        <v>1.527383357699458</v>
+        <v>0.08781841329276238</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1.802040858395336</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>-0.8903205014554892</v>
+        <v>-1.101973586761883</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.008302778611397384</v>
+        <v>0.01376527487439898</v>
       </c>
       <c r="C277" t="n">
-        <v>-0.8986232800668866</v>
+        <v>0.00964467968301783</v>
+      </c>
+      <c r="D277" t="n">
+        <v>-1.078563632204466</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>-1.081216670860807</v>
+        <v>-1.362796661544313</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.04233437694600595</v>
+        <v>0.06234783725950482</v>
       </c>
       <c r="C278" t="n">
-        <v>-1.123551047806813</v>
+        <v>0.02402646874059089</v>
+      </c>
+      <c r="D278" t="n">
+        <v>-1.276422355544218</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1.839598318327081</v>
+        <v>2.190030774342507</v>
       </c>
       <c r="B279" t="n">
-        <v>0.04124296010654593</v>
+        <v>0.01591554806728344</v>
       </c>
       <c r="C279" t="n">
-        <v>1.880841278433627</v>
+        <v>0.09704507313234702</v>
+      </c>
+      <c r="D279" t="n">
+        <v>2.302991395542137</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>-0.2739970663418905</v>
+        <v>-0.3598958190543085</v>
       </c>
       <c r="B280" t="n">
-        <v>0.05819022405692176</v>
+        <v>-0.03176873272672386</v>
       </c>
       <c r="C280" t="n">
-        <v>-0.2158068422849688</v>
+        <v>0.06010671649495778</v>
+      </c>
+      <c r="D280" t="n">
+        <v>-0.3315578352860746</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>-0.1914143195960856</v>
+        <v>-0.2270007237372824</v>
       </c>
       <c r="B281" t="n">
-        <v>0.0800382266189394</v>
+        <v>-0.07377995044412365</v>
       </c>
       <c r="C281" t="n">
-        <v>-0.1113760929771462</v>
+        <v>0.03361180174457646</v>
+      </c>
+      <c r="D281" t="n">
+        <v>-0.2671688724368296</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1.982287278547674</v>
+        <v>2.432645985900263</v>
       </c>
       <c r="B282" t="n">
-        <v>0.03913385472340734</v>
+        <v>-0.03257923487874999</v>
       </c>
       <c r="C282" t="n">
-        <v>2.021421133271081</v>
+        <v>0.01452772674078518</v>
+      </c>
+      <c r="D282" t="n">
+        <v>2.414594477762298</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>-0.9371367552928341</v>
+        <v>-1.186860715087034</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.02173503399010427</v>
+        <v>0.0455866385541918</v>
       </c>
       <c r="C283" t="n">
-        <v>-0.9588717892829384</v>
+        <v>0.03555890639054671</v>
+      </c>
+      <c r="D283" t="n">
+        <v>-1.105715170142295</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>2.044563675631988</v>
+        <v>2.507327038340665</v>
       </c>
       <c r="B284" t="n">
-        <v>0.07325507238477436</v>
+        <v>-0.06017878822956049</v>
       </c>
       <c r="C284" t="n">
-        <v>2.117818748016763</v>
+        <v>0.0345338454406317</v>
+      </c>
+      <c r="D284" t="n">
+        <v>2.481682095551736</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.7263785105186297</v>
+        <v>0.9936477537784336</v>
       </c>
       <c r="B285" t="n">
-        <v>0.1222049766799792</v>
+        <v>-0.1795717526895385</v>
       </c>
       <c r="C285" t="n">
-        <v>0.8485834871986089</v>
+        <v>-0.06002036008157129</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.7540556410073238</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>-0.5265943135977862</v>
+        <v>-0.6174959786728361</v>
       </c>
       <c r="B286" t="n">
-        <v>0.02962776163791014</v>
+        <v>-0.04668720876234041</v>
       </c>
       <c r="C286" t="n">
-        <v>-0.496966551959876</v>
+        <v>-0.0170722278907895</v>
+      </c>
+      <c r="D286" t="n">
+        <v>-0.6812554153259661</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>-0.64435703160247</v>
+        <v>-0.8147866139472366</v>
       </c>
       <c r="B287" t="n">
-        <v>0.0228768939294205</v>
+        <v>-0.001660623057294299</v>
       </c>
       <c r="C287" t="n">
-        <v>-0.6214801376730495</v>
+        <v>0.04299498479098905</v>
+      </c>
+      <c r="D287" t="n">
+        <v>-0.7734522522135419</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>-0.8694192283325344</v>
+        <v>-1.045160715194205</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.009121215329002199</v>
+        <v>-0.008765499686411351</v>
       </c>
       <c r="C288" t="n">
-        <v>-0.8785404436615366</v>
+        <v>-0.02822263504759252</v>
+      </c>
+      <c r="D288" t="n">
+        <v>-1.082148849928209</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>-0.5280020725689337</v>
+        <v>-0.6707798268235666</v>
       </c>
       <c r="B289" t="n">
-        <v>0.03103552060905761</v>
+        <v>-0.009447881107329293</v>
       </c>
       <c r="C289" t="n">
-        <v>-0.4969665519598761</v>
+        <v>0.04549970803063361</v>
+      </c>
+      <c r="D289" t="n">
+        <v>-0.6347279999002623</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>-1.100302366955793</v>
+        <v>-1.332438258370812</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.05136465181851076</v>
+        <v>0.02990474791530348</v>
       </c>
       <c r="C290" t="n">
-        <v>-1.151667018774304</v>
+        <v>-0.04519354083759164</v>
+      </c>
+      <c r="D290" t="n">
+        <v>-1.3477270512931</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>-1.074390186845364</v>
+        <v>-1.348164814122957</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.03309459183716825</v>
+        <v>0.04985664506656508</v>
       </c>
       <c r="C291" t="n">
-        <v>-1.107484778682533</v>
+        <v>0.02140971152457402</v>
+      </c>
+      <c r="D291" t="n">
+        <v>-1.276898457531818</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.04895452222384028</v>
+        <v>0.1367296355617455</v>
       </c>
       <c r="B292" t="n">
-        <v>0.06459715253893977</v>
+        <v>-0.1118735980560506</v>
       </c>
       <c r="C292" t="n">
-        <v>0.1135516747627801</v>
+        <v>-0.05778038981304129</v>
+      </c>
+      <c r="D292" t="n">
+        <v>-0.03292435230734643</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.2324124805284828</v>
+        <v>0.3103063543616545</v>
       </c>
       <c r="B293" t="n">
-        <v>0.1020503946931534</v>
+        <v>-0.1051246580000415</v>
       </c>
       <c r="C293" t="n">
-        <v>0.3344628752216362</v>
+        <v>0.02334774900237068</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.2285294453639837</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>-0.5203767560636153</v>
+        <v>-0.6347727321421675</v>
       </c>
       <c r="B294" t="n">
-        <v>0.04750960779015938</v>
+        <v>-0.04327346685329129</v>
       </c>
       <c r="C294" t="n">
-        <v>-0.4728671482734559</v>
+        <v>0.02226507197596101</v>
+      </c>
+      <c r="D294" t="n">
+        <v>-0.6557811270194976</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>-0.904185780326669</v>
+        <v>-1.129004408524315</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.01050376886449854</v>
+        <v>0.02309260516013511</v>
       </c>
       <c r="C295" t="n">
-        <v>-0.9146895491911675</v>
+        <v>0.02052948834221249</v>
+      </c>
+      <c r="D295" t="n">
+        <v>-1.085382315021967</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>-0.6100066994770407</v>
+        <v>-0.7402971947643269</v>
       </c>
       <c r="B296" t="n">
-        <v>0.04475850373897285</v>
+        <v>-0.0442995890936992</v>
       </c>
       <c r="C296" t="n">
-        <v>-0.5652481957380678</v>
+        <v>0.01572887734434657</v>
+      </c>
+      <c r="D296" t="n">
+        <v>-0.7688679065136795</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>-0.2169326846694983</v>
+        <v>-0.2699758447440238</v>
       </c>
       <c r="B297" t="n">
-        <v>0.07342405344379128</v>
+        <v>-0.05949052756143953</v>
       </c>
       <c r="C297" t="n">
-        <v>-0.1435086312257071</v>
+        <v>0.04416183221712706</v>
+      </c>
+      <c r="D297" t="n">
+        <v>-0.2853045400883363</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>-1.231729255407206</v>
+        <v>-1.54873961778095</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.06051761820455098</v>
+        <v>0.07863452565329609</v>
       </c>
       <c r="C298" t="n">
-        <v>-1.292246873611757</v>
+        <v>0.01633026318297413</v>
+      </c>
+      <c r="D298" t="n">
+        <v>-1.45377482894468</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>-0.9254780678826783</v>
+        <v>-1.159258994183947</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.02536058683812013</v>
+        <v>0.03875250646093689</v>
       </c>
       <c r="C299" t="n">
-        <v>-0.9508386547207984</v>
+        <v>0.01765683236040453</v>
+      </c>
+      <c r="D299" t="n">
+        <v>-1.102849655362606</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>-0.01716814036066876</v>
+        <v>-0.03173219944578823</v>
       </c>
       <c r="B300" t="n">
-        <v>0.07047130590739706</v>
+        <v>-0.05178099962061656</v>
       </c>
       <c r="C300" t="n">
-        <v>0.0533031655467283</v>
+        <v>0.05024582617975314</v>
+      </c>
+      <c r="D300" t="n">
+        <v>-0.03326737288665164</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>-1.371387586241248</v>
+        <v>-1.717258840144279</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.08152197861331319</v>
+        <v>0.09425639408704484</v>
       </c>
       <c r="C301" t="n">
-        <v>-1.452909564854562</v>
+        <v>0.002182032079206441</v>
+      </c>
+      <c r="D301" t="n">
+        <v>-1.620820413978028</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>2.215469428562676</v>
+        <v>2.701365593045962</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.04543530589200064</v>
+        <v>0.05216342106913019</v>
       </c>
       <c r="C302" t="n">
-        <v>2.170034122670676</v>
+        <v>-0.01018344438485434</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2.743345569730238</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>-0.7040526264164745</v>
+        <v>-0.8491991871180061</v>
       </c>
       <c r="B303" t="n">
-        <v>0.03437368137058389</v>
+        <v>-0.04037938025347679</v>
       </c>
       <c r="C303" t="n">
-        <v>-0.6696789450458907</v>
+        <v>0.002706518140241654</v>
+      </c>
+      <c r="D303" t="n">
+        <v>-0.8868720492312412</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>2.388265839767527</v>
+        <v>2.966254101005978</v>
       </c>
       <c r="B304" t="n">
-        <v>0.006696050643074184</v>
+        <v>-0.03135275766118969</v>
       </c>
       <c r="C304" t="n">
-        <v>2.394961890410601</v>
+        <v>-0.04640981169274232</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2.888491531652045</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>-1.375203045097869</v>
+        <v>-1.720140973249413</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.08573965431883297</v>
+        <v>0.09648784586840534</v>
       </c>
       <c r="C305" t="n">
-        <v>-1.460942699416702</v>
+        <v>-0.002203182808894544</v>
+      </c>
+      <c r="D305" t="n">
+        <v>-1.625856310189903</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>-1.042036935944625</v>
+        <v>-1.287951063394871</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.02929873720827595</v>
+        <v>0.03135984634291084</v>
       </c>
       <c r="C306" t="n">
-        <v>-1.071335673152901</v>
+        <v>-0.00127076427338406</v>
+      </c>
+      <c r="D306" t="n">
+        <v>-1.257861981325344</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>-0.9855646771297374</v>
+        <v>-1.226630682199384</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.02953905408818272</v>
+        <v>0.03753037839046711</v>
       </c>
       <c r="C307" t="n">
-        <v>-1.01510373121792</v>
+        <v>0.007994755860392154</v>
+      </c>
+      <c r="D307" t="n">
+        <v>-1.181105547948524</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>-0.4227080768801272</v>
+        <v>-0.5329252444672666</v>
       </c>
       <c r="B308" t="n">
-        <v>0.05025511063342397</v>
+        <v>-0.03214524268880021</v>
       </c>
       <c r="C308" t="n">
-        <v>-0.3724529662467032</v>
+        <v>0.04501101870478331</v>
+      </c>
+      <c r="D308" t="n">
+        <v>-0.5200594684512836</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>-1.851412721053263</v>
+        <v>-2.358916952410131</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.2079985032428844</v>
+        <v>0.2404968960116232</v>
       </c>
       <c r="C309" t="n">
-        <v>-2.059411224296148</v>
+        <v>-0.0003956390728174573</v>
+      </c>
+      <c r="D309" t="n">
+        <v>-2.118815695471325</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>-0.304339232998133</v>
+        <v>-0.3977595070470871</v>
       </c>
       <c r="B310" t="n">
-        <v>0.05238328518353334</v>
+        <v>-0.02638810421204233</v>
       </c>
       <c r="C310" t="n">
-        <v>-0.2519559478145997</v>
+        <v>0.05787312184782305</v>
+      </c>
+      <c r="D310" t="n">
+        <v>-0.3662744894113064</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>-0.4663065959262775</v>
+        <v>-0.600907384974385</v>
       </c>
       <c r="B311" t="n">
-        <v>0.03360512046352328</v>
+        <v>-0.007254126587567274</v>
       </c>
       <c r="C311" t="n">
-        <v>-0.4327014754627542</v>
+        <v>0.05367159582161041</v>
+      </c>
+      <c r="D311" t="n">
+        <v>-0.5544899157403419</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>-0.9624652143576425</v>
+        <v>-1.205372958081825</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.01247284404957674</v>
+        <v>0.02835851058303823</v>
       </c>
       <c r="C312" t="n">
-        <v>-0.9749380584072193</v>
+        <v>0.02548169491967521</v>
+      </c>
+      <c r="D312" t="n">
+        <v>-1.151532752579112</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0.1170742660330393</v>
+        <v>0.1125846540076741</v>
       </c>
       <c r="B313" t="n">
-        <v>0.07680875435114261</v>
+        <v>-0.04188692551146723</v>
       </c>
       <c r="C313" t="n">
-        <v>0.1938830203841819</v>
+        <v>0.07767723290580003</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0.1483749614020069</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>-0.5778405539809455</v>
+        <v>-0.7019315508594489</v>
       </c>
       <c r="B314" t="n">
-        <v>0.02865862736715769</v>
+        <v>-0.0298190115828401</v>
       </c>
       <c r="C314" t="n">
-        <v>-0.5491819266137877</v>
+        <v>0.008411000868027119</v>
+      </c>
+      <c r="D314" t="n">
+        <v>-0.7233395615742618</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>-1.013904161353368</v>
+        <v>-1.261654031570614</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.02529897355097343</v>
+        <v>0.034111391021751</v>
       </c>
       <c r="C315" t="n">
-        <v>-1.039203134904341</v>
+        <v>0.01062882536269065</v>
+      </c>
+      <c r="D315" t="n">
+        <v>-1.216913815186172</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>-1.982824766303683</v>
+        <v>-2.520245404079961</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.2384541194195908</v>
+        <v>0.2663146776191396</v>
       </c>
       <c r="C316" t="n">
-        <v>-2.221278885723273</v>
+        <v>-0.01607432303196651</v>
+      </c>
+      <c r="D316" t="n">
+        <v>-2.270005049492787</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>-0.6773136077765578</v>
+        <v>-0.8569223378224856</v>
       </c>
       <c r="B317" t="n">
-        <v>0.0196843645738773</v>
+        <v>0.002296398735637123</v>
       </c>
       <c r="C317" t="n">
-        <v>-0.6576292432026805</v>
+        <v>0.04343272905905835</v>
+      </c>
+      <c r="D317" t="n">
+        <v>-0.8111932100277901</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>-0.7801943023719693</v>
+        <v>-0.9870976409784896</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.00194852654388469</v>
+        <v>0.02352294483358898</v>
       </c>
       <c r="C318" t="n">
-        <v>-0.782142828915854</v>
+        <v>0.0369759555043868</v>
+      </c>
+      <c r="D318" t="n">
+        <v>-0.9265987406405138</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>1.570278265198292</v>
+        <v>1.917926814831165</v>
       </c>
       <c r="B319" t="n">
-        <v>0.07358554365219791</v>
+        <v>-0.05511187942872663</v>
       </c>
       <c r="C319" t="n">
-        <v>1.64386380885049</v>
+        <v>0.04502992867939518</v>
+      </c>
+      <c r="D319" t="n">
+        <v>1.907844864081833</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>-1.84659788140311</v>
+        <v>-2.26664513557065</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.1959437603125437</v>
+        <v>0.1659020709225141</v>
       </c>
       <c r="C320" t="n">
-        <v>-2.042541641715653</v>
+        <v>-0.09756890754507776</v>
+      </c>
+      <c r="D320" t="n">
+        <v>-2.198311972193214</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>-0.6980109718711022</v>
+        <v>-0.8878638859820323</v>
       </c>
       <c r="B321" t="n">
-        <v>0.01628232498200093</v>
+        <v>0.009304779813588893</v>
       </c>
       <c r="C321" t="n">
-        <v>-0.6817286468891013</v>
+        <v>0.04833739546651063</v>
+      </c>
+      <c r="D321" t="n">
+        <v>-0.8302217107019327</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>-1.443713803340122</v>
+        <v>-1.784187254438526</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.113626510822262</v>
+        <v>0.1051708446634843</v>
       </c>
       <c r="C322" t="n">
-        <v>-1.557340314162384</v>
+        <v>-0.04080643249599488</v>
+      </c>
+      <c r="D322" t="n">
+        <v>-1.719822842271036</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>2.456623099852671</v>
+        <v>2.936269252327071</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.0335452384745797</v>
+        <v>0.08765897849750623</v>
       </c>
       <c r="C323" t="n">
-        <v>2.423077861378092</v>
+        <v>0.06855779375649081</v>
+      </c>
+      <c r="D323" t="n">
+        <v>3.092486024581069</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>-0.5563499586044476</v>
+        <v>-0.6717472396311149</v>
       </c>
       <c r="B324" t="n">
-        <v>0.04733370480136075</v>
+        <v>-0.04848106629761999</v>
       </c>
       <c r="C324" t="n">
-        <v>-0.5090162538030868</v>
+        <v>0.01368578735062054</v>
+      </c>
+      <c r="D324" t="n">
+        <v>-0.7065425185781143</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>2.47266136293734</v>
+        <v>3.063718619957973</v>
       </c>
       <c r="B325" t="n">
-        <v>0.02271470950001379</v>
+        <v>-0.04035277985466237</v>
       </c>
       <c r="C325" t="n">
-        <v>2.495376072437354</v>
+        <v>-0.03085282463001728</v>
+      </c>
+      <c r="D325" t="n">
+        <v>2.992513015473293</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>-0.7832165299466363</v>
+        <v>-0.9714533731709564</v>
       </c>
       <c r="B326" t="n">
-        <v>0.009106835592922328</v>
+        <v>-0.0002743477948527034</v>
       </c>
       <c r="C326" t="n">
-        <v>-0.7741096943537139</v>
+        <v>0.01964749258666975</v>
+      </c>
+      <c r="D326" t="n">
+        <v>-0.9520802283791393</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>-0.624472503017608</v>
+        <v>-0.7647285083140044</v>
       </c>
       <c r="B327" t="n">
-        <v>0.03914147087418931</v>
+        <v>-0.03456448963275088</v>
       </c>
       <c r="C327" t="n">
-        <v>-0.5853310321434188</v>
+        <v>0.02080168555426816</v>
+      </c>
+      <c r="D327" t="n">
+        <v>-0.778491312392487</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>-0.08067639342733274</v>
+        <v>-0.1118834287080217</v>
       </c>
       <c r="B328" t="n">
-        <v>0.07373104975800929</v>
+        <v>-0.05291170783207155</v>
       </c>
       <c r="C328" t="n">
-        <v>-0.00694534366932345</v>
+        <v>0.05483140171857127</v>
+      </c>
+      <c r="D328" t="n">
+        <v>-0.109963734821522</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>-0.8412892543452377</v>
+        <v>-1.064569052703654</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.001102083786668092</v>
+        <v>0.02464829133901561</v>
       </c>
       <c r="C329" t="n">
-        <v>-0.8423913381319058</v>
+        <v>0.04061084247518816</v>
+      </c>
+      <c r="D329" t="n">
+        <v>-0.9993099188894504</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>0.749698685942903</v>
+        <v>0.9674273969105206</v>
       </c>
       <c r="B330" t="n">
-        <v>0.1109345030989166</v>
+        <v>-0.1291332781267338</v>
       </c>
       <c r="C330" t="n">
-        <v>0.8606331890418196</v>
+        <v>-0.0003198492248655558</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0.8379742695589212</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>0.7740356059052694</v>
+        <v>1.001527466654494</v>
       </c>
       <c r="B331" t="n">
-        <v>0.08258101585548108</v>
+        <v>-0.1082524636964328</v>
       </c>
       <c r="C331" t="n">
-        <v>0.8566166217607505</v>
+        <v>-0.0205230786388862</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0.8727519243191747</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0.6602726515578886</v>
+        <v>0.8682525502496026</v>
       </c>
       <c r="B332" t="n">
-        <v>0.1039629227382492</v>
+        <v>-0.1311292530674835</v>
       </c>
       <c r="C332" t="n">
-        <v>0.7642355742961378</v>
+        <v>-0.01641052581652322</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0.7207127713655958</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>-0.5137485798686611</v>
+        <v>-0.5965017195914396</v>
       </c>
       <c r="B333" t="n">
-        <v>0.05293113343841598</v>
+        <v>-0.0703320365769986</v>
       </c>
       <c r="C333" t="n">
-        <v>-0.4608174464302451</v>
+        <v>-0.01101489464264904</v>
+      </c>
+      <c r="D333" t="n">
+        <v>-0.6778486508110872</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>-1.122010874380508</v>
+        <v>-1.392521104036577</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.0457224135180762</v>
+        <v>0.05004620884693472</v>
       </c>
       <c r="C334" t="n">
-        <v>-1.167733287898584</v>
+        <v>-0.00203015273931254</v>
+      </c>
+      <c r="D334" t="n">
+        <v>-1.344505047928955</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>-1.110556095998763</v>
+        <v>-1.396504377013882</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.04512749005661097</v>
+        <v>0.06299375046556796</v>
       </c>
       <c r="C335" t="n">
-        <v>-1.155683586055374</v>
+        <v>0.01988159219656607</v>
+      </c>
+      <c r="D335" t="n">
+        <v>-1.313629034351748</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>-0.7500616459520596</v>
+        <v>-0.9474812135558295</v>
       </c>
       <c r="B336" t="n">
-        <v>0.01611762440904735</v>
+        <v>0.00625419772349683</v>
       </c>
       <c r="C336" t="n">
-        <v>-0.7339440215430123</v>
+        <v>0.04330725252178456</v>
+      </c>
+      <c r="D336" t="n">
+        <v>-0.8979197633105481</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>1.119315830792831</v>
+        <v>1.385626601063172</v>
       </c>
       <c r="B337" t="n">
-        <v>0.05862617345352717</v>
+        <v>-0.05830900391945088</v>
       </c>
       <c r="C337" t="n">
-        <v>1.177942004246358</v>
+        <v>0.01318909482264577</v>
+      </c>
+      <c r="D337" t="n">
+        <v>1.340506691966367</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>-0.5111369709547773</v>
+        <v>-0.6048433782241674</v>
       </c>
       <c r="B338" t="n">
-        <v>0.05433609180560216</v>
+        <v>-0.06291451483512296</v>
       </c>
       <c r="C338" t="n">
-        <v>-0.4568008791491751</v>
+        <v>0.003567957688939284</v>
+      </c>
+      <c r="D338" t="n">
+        <v>-0.6641899353703512</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>1.811454341319978</v>
+        <v>2.21469661534008</v>
       </c>
       <c r="B339" t="n">
-        <v>0.05332066798936858</v>
+        <v>-0.03846256059632349</v>
       </c>
       <c r="C339" t="n">
-        <v>1.864775009309346</v>
+        <v>0.03255396957262902</v>
+      </c>
+      <c r="D339" t="n">
+        <v>2.208788024316385</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>-1.510828005027073</v>
+        <v>-1.889209272491696</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.1268436547567129</v>
+        <v>0.133244657639946</v>
       </c>
       <c r="C340" t="n">
-        <v>-1.637671659783786</v>
+        <v>-0.02043921152206793</v>
+      </c>
+      <c r="D340" t="n">
+        <v>-1.776403826373818</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>4.080640967078649</v>
+        <v>4.832484315297135</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.3120130665420716</v>
+        <v>0.3962787298795817</v>
       </c>
       <c r="C341" t="n">
-        <v>3.768627900536577</v>
+        <v>0.03166574195424276</v>
+      </c>
+      <c r="D341" t="n">
+        <v>5.260428787130959</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>0.03125418026831193</v>
+        <v>0.07756208063448361</v>
       </c>
       <c r="B342" t="n">
-        <v>0.08631406177553813</v>
+        <v>-0.1023699732147097</v>
       </c>
       <c r="C342" t="n">
-        <v>0.1175682420438501</v>
+        <v>-0.001296887290647752</v>
+      </c>
+      <c r="D342" t="n">
+        <v>-0.02610477987087383</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>-1.660931651275067</v>
+        <v>-2.077691049176295</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.1550755957882325</v>
+        <v>0.160314519438057</v>
       </c>
       <c r="C343" t="n">
-        <v>-1.8160072470633</v>
+        <v>-0.02982440171632648</v>
+      </c>
+      <c r="D343" t="n">
+        <v>-1.947200931454565</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>-1.181091941505318</v>
+        <v>-1.451455561118985</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.05090642289038703</v>
+        <v>0.04430690078172221</v>
       </c>
       <c r="C344" t="n">
-        <v>-1.231998364395706</v>
+        <v>-0.02086641186216617</v>
+      </c>
+      <c r="D344" t="n">
+        <v>-1.428015072199429</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2.199338745547287</v>
+        <v>2.697844235645142</v>
       </c>
       <c r="B345" t="n">
-        <v>0.03094388633943921</v>
+        <v>-0.02470507656736188</v>
       </c>
       <c r="C345" t="n">
-        <v>2.230282631886727</v>
+        <v>0.01089439395182659</v>
+      </c>
+      <c r="D345" t="n">
+        <v>2.684033553029607</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>-0.9572391959259131</v>
+        <v>-1.184445272515943</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.01368229520023541</v>
+        <v>0.0185652880446607</v>
       </c>
       <c r="C346" t="n">
-        <v>-0.9709214911261486</v>
+        <v>0.00741933677353569</v>
+      </c>
+      <c r="D346" t="n">
+        <v>-1.158460647697747</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>-1.446934338735278</v>
+        <v>-1.794422298927878</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.1063894081460368</v>
+        <v>0.103719936489196</v>
       </c>
       <c r="C347" t="n">
-        <v>-1.553323746881315</v>
+        <v>-0.02942129257816234</v>
+      </c>
+      <c r="D347" t="n">
+        <v>-1.720123655016844</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>-0.8366721623947796</v>
+        <v>-1.047219685270169</v>
       </c>
       <c r="B348" t="n">
-        <v>0.006330526106084735</v>
+        <v>0.009641071767023647</v>
       </c>
       <c r="C348" t="n">
-        <v>-0.8303416362886948</v>
+        <v>0.03053215364095554</v>
+      </c>
+      <c r="D348" t="n">
+        <v>-1.00704645986219</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>0.1548406407701511</v>
+        <v>0.1955763504719392</v>
       </c>
       <c r="B349" t="n">
-        <v>0.09929088883008252</v>
+        <v>-0.08824684220640909</v>
       </c>
       <c r="C349" t="n">
-        <v>0.2541315296002337</v>
+        <v>0.0455508968900822</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.1528804051556123</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>-1.040833086001889</v>
+        <v>-1.300534231958094</v>
       </c>
       <c r="B350" t="n">
-        <v>-0.02648601986994244</v>
+        <v>0.03945787377396334</v>
       </c>
       <c r="C350" t="n">
-        <v>-1.067319105871831</v>
+        <v>0.01707814262838962</v>
+      </c>
+      <c r="D350" t="n">
+        <v>-1.243998215555741</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>-0.8961694493882961</v>
+        <v>-1.082178672078258</v>
       </c>
       <c r="B351" t="n">
-        <v>0.02164557300782946</v>
+        <v>-0.03172489882405136</v>
       </c>
       <c r="C351" t="n">
-        <v>-0.8745238763804667</v>
+        <v>-0.006783251622101918</v>
+      </c>
+      <c r="D351" t="n">
+        <v>-1.120686822524411</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>-0.9658728551574411</v>
+        <v>-1.223171933213734</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.02513147237405813</v>
+        <v>0.04923677807068947</v>
       </c>
       <c r="C352" t="n">
-        <v>-0.9910043275314993</v>
+        <v>0.03510150755199053</v>
+      </c>
+      <c r="D352" t="n">
+        <v>-1.138833647591054</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0.5344571947633359</v>
+        <v>0.7965504988859001</v>
       </c>
       <c r="B353" t="n">
-        <v>0.1173144956628383</v>
+        <v>-0.2041293916007149</v>
       </c>
       <c r="C353" t="n">
-        <v>0.6517716904261742</v>
+        <v>-0.1080887585606697</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.4843323487245155</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>5.05539509157995</v>
+        <v>6.082517551280861</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.3950892546458086</v>
+        <v>0.4268525151493299</v>
       </c>
       <c r="C354" t="n">
-        <v>4.660305836934141</v>
+        <v>-0.08003898530289293</v>
+      </c>
+      <c r="D354" t="n">
+        <v>6.429331081127298</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0.3154366525786442</v>
+        <v>0.4010967395761449</v>
       </c>
       <c r="B355" t="n">
-        <v>0.06722503001583309</v>
+        <v>-0.06731353309549395</v>
       </c>
       <c r="C355" t="n">
-        <v>0.3826616825944772</v>
+        <v>0.01790664940035501</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0.351689855881006</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>-1.143507070964928</v>
+        <v>-1.426744609627342</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.05635875518221676</v>
+        <v>0.06490126275264953</v>
       </c>
       <c r="C356" t="n">
-        <v>-1.199865826147145</v>
+        <v>0.001797018804396777</v>
+      </c>
+      <c r="D356" t="n">
+        <v>-1.360046328070296</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>-0.6548090684659281</v>
+        <v>-0.7735556936282132</v>
       </c>
       <c r="B357" t="n">
-        <v>0.02529579623073851</v>
+        <v>-0.04401121131100713</v>
       </c>
       <c r="C357" t="n">
-        <v>-0.6295132722351896</v>
+        <v>-0.02050773868169312</v>
+      </c>
+      <c r="D357" t="n">
+        <v>-0.8380746436209134</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>-0.5037127628739082</v>
+        <v>-0.5747137547423646</v>
       </c>
       <c r="B358" t="n">
-        <v>0.07101128741115396</v>
+        <v>-0.09271319241418187</v>
       </c>
       <c r="C358" t="n">
-        <v>-0.4327014754627542</v>
+        <v>-0.01280765003639878</v>
+      </c>
+      <c r="D358" t="n">
+        <v>-0.6802345971929453</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>-0.1747279215746889</v>
+        <v>-0.2245865458211209</v>
       </c>
       <c r="B359" t="n">
-        <v>0.07138496315968279</v>
+        <v>-0.05297596981045711</v>
       </c>
       <c r="C359" t="n">
-        <v>-0.1033429584150061</v>
+        <v>0.05062553509731645</v>
+      </c>
+      <c r="D359" t="n">
+        <v>-0.2269369805342616</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>-1.886572527963621</v>
+        <v>-2.378584167000979</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.2218408171615816</v>
+        <v>0.2347142697018668</v>
       </c>
       <c r="C360" t="n">
-        <v>-2.108413345125203</v>
+        <v>-0.03578740826590013</v>
+      </c>
+      <c r="D360" t="n">
+        <v>-2.179657305565013</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>-1.698893533228706</v>
+        <v>-2.152045959945249</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.1853953576127856</v>
+        <v>0.206699664689081</v>
       </c>
       <c r="C361" t="n">
-        <v>-1.884288890841491</v>
+        <v>-0.01250147490949151</v>
+      </c>
+      <c r="D361" t="n">
+        <v>-1.957847770165659</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>-0.6465580218555713</v>
+        <v>-0.8263652534488893</v>
       </c>
       <c r="B362" t="n">
-        <v>0.009011615058240909</v>
+        <v>0.01670753659316879</v>
       </c>
       <c r="C362" t="n">
-        <v>-0.6375464067973304</v>
+        <v>0.0462874115485171</v>
+      </c>
+      <c r="D362" t="n">
+        <v>-0.7633703053072034</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>-0.384927699123209</v>
+        <v>-0.4742366197319925</v>
       </c>
       <c r="B363" t="n">
-        <v>0.05264040568720747</v>
+        <v>-0.04334324098213149</v>
       </c>
       <c r="C363" t="n">
-        <v>-0.3322872934360016</v>
+        <v>0.03137954420221198</v>
+      </c>
+      <c r="D363" t="n">
+        <v>-0.486200316511912</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>-0.5929236858146675</v>
+        <v>-0.7242155287361313</v>
       </c>
       <c r="B364" t="n">
-        <v>0.04374175920087971</v>
+        <v>-0.0397931758414773</v>
       </c>
       <c r="C364" t="n">
-        <v>-0.5491819266137877</v>
+        <v>0.02098987597840496</v>
+      </c>
+      <c r="D364" t="n">
+        <v>-0.7430188285992037</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0.8449596652409183</v>
+        <v>1.038018725798297</v>
       </c>
       <c r="B365" t="n">
-        <v>0.1080545712655141</v>
+        <v>-0.09214071656268319</v>
       </c>
       <c r="C365" t="n">
-        <v>0.9530142365064324</v>
+        <v>0.05338359379867921</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0.9992616030342929</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>-0.3521750319775322</v>
+        <v>-0.4417834862601368</v>
       </c>
       <c r="B366" t="n">
-        <v>0.06005341135223152</v>
+        <v>-0.04384582994112074</v>
       </c>
       <c r="C366" t="n">
-        <v>-0.2921216206253007</v>
+        <v>0.04449279810252243</v>
+      </c>
+      <c r="D366" t="n">
+        <v>-0.4411365180987351</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>2.551065642433082</v>
+        <v>3.077646231430642</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.01552389718502721</v>
+        <v>0.05342107152195073</v>
       </c>
       <c r="C367" t="n">
-        <v>2.535541745248055</v>
+        <v>0.04727564820915737</v>
+      </c>
+      <c r="D367" t="n">
+        <v>3.17834295116175</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>2.384212864634961</v>
+        <v>2.939215065046312</v>
       </c>
       <c r="B368" t="n">
-        <v>0.05493126586741091</v>
+        <v>-0.0557851482915376</v>
       </c>
       <c r="C368" t="n">
-        <v>2.439144130502372</v>
+        <v>0.00566363656379425</v>
+      </c>
+      <c r="D368" t="n">
+        <v>2.889093553318569</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>-0.7802027041838527</v>
+        <v>-0.9618502797262085</v>
       </c>
       <c r="B369" t="n">
-        <v>0.0101095771112095</v>
+        <v>-0.005524862634898989</v>
       </c>
       <c r="C369" t="n">
-        <v>-0.7700931270726432</v>
+        <v>0.0130901867298221</v>
+      </c>
+      <c r="D369" t="n">
+        <v>-0.9542849556312855</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>3.314921978638591</v>
+        <v>3.869625707882367</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.2692761886946312</v>
+        <v>0.377107774147514</v>
       </c>
       <c r="C370" t="n">
-        <v>3.04564578994396</v>
+        <v>0.0845503632289291</v>
+      </c>
+      <c r="D370" t="n">
+        <v>4.33128384525881</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>3.246461096206881</v>
+        <v>3.964037143816149</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.0803182878308184</v>
+        <v>0.08393530244329046</v>
       </c>
       <c r="C371" t="n">
-        <v>3.166142808376062</v>
+        <v>-0.02888557043176048</v>
+      </c>
+      <c r="D371" t="n">
+        <v>4.019086875827679</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>0.8194609043952341</v>
+        <v>1.07429282148353</v>
       </c>
       <c r="B372" t="n">
-        <v>0.07330482289514716</v>
+        <v>-0.1130648384582497</v>
       </c>
       <c r="C372" t="n">
-        <v>0.8927657272903813</v>
+        <v>-0.04599802760511788</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0.9152299554201623</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>0.3278745682509474</v>
+        <v>0.4029638874537655</v>
       </c>
       <c r="B373" t="n">
-        <v>0.09896935443530082</v>
+        <v>-0.0842269652518106</v>
       </c>
       <c r="C373" t="n">
-        <v>0.4268439226862482</v>
+        <v>0.05078051354180269</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0.3695174357437576</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>2.924866855740996</v>
+        <v>3.561239269861456</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.01578435335342025</v>
+        <v>0.03521501975366424</v>
       </c>
       <c r="C374" t="n">
-        <v>2.909082502387575</v>
+        <v>0.01614188395634241</v>
+      </c>
+      <c r="D374" t="n">
+        <v>3.612596173571462</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>2.675696853512627</v>
+        <v>3.203089531567807</v>
       </c>
       <c r="B375" t="n">
-        <v>-0.05982376264316931</v>
+        <v>0.1115048393727414</v>
       </c>
       <c r="C375" t="n">
-        <v>2.615873090869457</v>
+        <v>0.05634779312760008</v>
+      </c>
+      <c r="D375" t="n">
+        <v>3.370942164068148</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>-0.2402388570739654</v>
+        <v>-0.2942462159362952</v>
       </c>
       <c r="B376" t="n">
-        <v>0.06459768759969746</v>
+        <v>-0.05524538267291612</v>
       </c>
       <c r="C376" t="n">
-        <v>-0.1756411694742679</v>
+        <v>0.03435738165335506</v>
+      </c>
+      <c r="D376" t="n">
+        <v>-0.3151342169558563</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>0.6789365265762468</v>
+        <v>0.8954454202637033</v>
       </c>
       <c r="B377" t="n">
-        <v>0.1415309896548726</v>
+        <v>-0.166160088565986</v>
       </c>
       <c r="C377" t="n">
-        <v>0.8204675162311194</v>
+        <v>-0.001671244417754038</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0.7276140872799632</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>-1.351092438995603</v>
+        <v>-1.622128031023465</v>
       </c>
       <c r="B378" t="n">
-        <v>-0.07771772217253753</v>
+        <v>0.03868889629871902</v>
       </c>
       <c r="C378" t="n">
-        <v>-1.428810161168141</v>
+        <v>-0.08006805413096089</v>
+      </c>
+      <c r="D378" t="n">
+        <v>-1.663507188855707</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>-0.3206178129627078</v>
+        <v>-0.4062819516786225</v>
       </c>
       <c r="B379" t="n">
-        <v>0.05259559602382807</v>
+        <v>-0.03511165949250473</v>
       </c>
       <c r="C379" t="n">
-        <v>-0.2680222169388797</v>
+        <v>0.04430219460775238</v>
+      </c>
+      <c r="D379" t="n">
+        <v>-0.3970914165633748</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>-0.243247081628826</v>
+        <v>-0.2864782172500049</v>
       </c>
       <c r="B380" t="n">
-        <v>0.05555621031134801</v>
+        <v>-0.05612618755820606</v>
       </c>
       <c r="C380" t="n">
-        <v>-0.187690871317478</v>
+        <v>0.01582666465055465</v>
+      </c>
+      <c r="D380" t="n">
+        <v>-0.3267777401576563</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>-1.201811710431553</v>
+        <v>-1.425228449000912</v>
       </c>
       <c r="B381" t="n">
-        <v>-0.02215351940201311</v>
+        <v>-0.01857348431579676</v>
       </c>
       <c r="C381" t="n">
-        <v>-1.223965229833566</v>
+        <v>-0.06747726993290895</v>
+      </c>
+      <c r="D381" t="n">
+        <v>-1.511279203249617</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>-1.113980540422329</v>
+        <v>-1.356904611153915</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.03366991107090495</v>
+        <v>0.02062977273950032</v>
       </c>
       <c r="C382" t="n">
-        <v>-1.147650451493234</v>
+        <v>-0.02654863058037438</v>
+      </c>
+      <c r="D382" t="n">
+        <v>-1.362823468994789</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>-1.187521809879784</v>
+        <v>-1.476226880729392</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.05250968907806187</v>
+        <v>0.05824752654750641</v>
       </c>
       <c r="C383" t="n">
-        <v>-1.240031498957846</v>
+        <v>-0.001455845019569948</v>
+      </c>
+      <c r="D383" t="n">
+        <v>-1.419435199201455</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>-0.8336527354240739</v>
+        <v>-0.9950101217752327</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.0007054681456909521</v>
+        <v>-0.02055258380990471</v>
       </c>
       <c r="C384" t="n">
-        <v>-0.8343582035697649</v>
+        <v>-0.03137251208151804</v>
+      </c>
+      <c r="D384" t="n">
+        <v>-1.046935217666656</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>-0.7350037195539886</v>
+        <v>-0.8694529985752159</v>
       </c>
       <c r="B385" t="n">
-        <v>0.03720880354060724</v>
+        <v>-0.05600757962172682</v>
       </c>
       <c r="C385" t="n">
-        <v>-0.6977949160133814</v>
+        <v>-0.01694983166226863</v>
+      </c>
+      <c r="D385" t="n">
+        <v>-0.9424104098592113</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>-0.3975919286556135</v>
+        <v>-0.4714702262773401</v>
       </c>
       <c r="B386" t="n">
-        <v>0.05727150065747118</v>
+        <v>-0.06091954044962424</v>
       </c>
       <c r="C386" t="n">
-        <v>-0.3403204279981424</v>
+        <v>0.01192493357241887</v>
+      </c>
+      <c r="D386" t="n">
+        <v>-0.5204648331545455</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>0.1146637655436052</v>
+        <v>0.1413260296236604</v>
       </c>
       <c r="B387" t="n">
-        <v>0.07520268755950671</v>
+        <v>-0.0641570260023622</v>
       </c>
       <c r="C387" t="n">
-        <v>0.1898664531031119</v>
+        <v>0.03882196019426818</v>
+      </c>
+      <c r="D387" t="n">
+        <v>0.1159909638155664</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>-0.7729628009036661</v>
+        <v>-0.9447641822005898</v>
       </c>
       <c r="B388" t="n">
-        <v>0.00286967383102287</v>
+        <v>-0.005500558846884119</v>
       </c>
       <c r="C388" t="n">
-        <v>-0.7700931270726432</v>
+        <v>-0.0006095658254273683</v>
+      </c>
+      <c r="D388" t="n">
+        <v>-0.9508743068729013</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>-0.1668874936251144</v>
+        <v>-0.2217653670557884</v>
       </c>
       <c r="B389" t="n">
-        <v>0.06756110249117904</v>
+        <v>-0.04466340473005345</v>
       </c>
       <c r="C389" t="n">
-        <v>-0.09932639113393536</v>
+        <v>0.05672558972051833</v>
+      </c>
+      <c r="D389" t="n">
+        <v>-0.2097031820653236</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>-1.1025173602287</v>
+        <v>-1.342330438429504</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.04513309126453361</v>
+        <v>0.02997064007073001</v>
       </c>
       <c r="C390" t="n">
-        <v>-1.147650451493234</v>
+        <v>-0.03327675846521156</v>
+      </c>
+      <c r="D390" t="n">
+        <v>-1.345636556823986</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>2.133009373330407</v>
+        <v>2.619931107546159</v>
       </c>
       <c r="B391" t="n">
-        <v>0.04505788390240893</v>
+        <v>-0.03928491480118835</v>
       </c>
       <c r="C391" t="n">
-        <v>2.178067257232815</v>
+        <v>0.01441517916325539</v>
+      </c>
+      <c r="D391" t="n">
+        <v>2.595061371908226</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>-1.446934338735278</v>
+        <v>-1.805135431063366</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.1063894081460368</v>
+        <v>0.1117060869186258</v>
       </c>
       <c r="C392" t="n">
-        <v>-1.553323746881315</v>
+        <v>-0.01657534762279481</v>
+      </c>
+      <c r="D392" t="n">
+        <v>-1.710004691767535</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>-1.928966076825451</v>
+        <v>-2.448199872110573</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.2372858371471614</v>
+        <v>0.2609045909894384</v>
       </c>
       <c r="C393" t="n">
-        <v>-2.166251913972612</v>
+        <v>-0.02275914374364147</v>
+      </c>
+      <c r="D393" t="n">
+        <v>-2.210054424864777</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>0.4542877491109265</v>
+        <v>0.6191974397097949</v>
       </c>
       <c r="B394" t="n">
-        <v>0.09305319200742514</v>
+        <v>-0.1247230572769422</v>
       </c>
       <c r="C394" t="n">
-        <v>0.5473409411183516</v>
+        <v>-0.02602237457468813</v>
+      </c>
+      <c r="D394" t="n">
+        <v>0.4684520078581645</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>3.015298432248258</v>
+        <v>3.708847040761225</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.009818315115000727</v>
+        <v>0.002878853096465772</v>
       </c>
       <c r="C395" t="n">
-        <v>3.005480117133257</v>
+        <v>-0.02489981657487988</v>
+      </c>
+      <c r="D395" t="n">
+        <v>3.686826077282811</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>-0.826829052012593</v>
+        <v>-1.00560965782865</v>
       </c>
       <c r="B396" t="n">
-        <v>0.01255368484817813</v>
+        <v>-0.0176439504769458</v>
       </c>
       <c r="C396" t="n">
-        <v>-0.814275367164415</v>
+        <v>-0.001605409547754043</v>
+      </c>
+      <c r="D396" t="n">
+        <v>-1.02485901785335</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>-0.1055998350392801</v>
+        <v>-0.1388806400039181</v>
       </c>
       <c r="B397" t="n">
-        <v>0.07857165496460657</v>
+        <v>-0.05969670584023935</v>
       </c>
       <c r="C397" t="n">
-        <v>-0.02702818007467357</v>
+        <v>0.05317617353869986</v>
+      </c>
+      <c r="D397" t="n">
+        <v>-0.1454011723054576</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>-0.3186207317380179</v>
+        <v>-0.3520105899179767</v>
       </c>
       <c r="B398" t="n">
-        <v>0.07068135120448818</v>
+        <v>-0.08906878840846025</v>
       </c>
       <c r="C398" t="n">
-        <v>-0.2479393805335297</v>
+        <v>-0.008241631540970695</v>
+      </c>
+      <c r="D398" t="n">
+        <v>-0.4493210098674076</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>-0.5613608655919207</v>
+        <v>-0.6703906236115356</v>
       </c>
       <c r="B399" t="n">
-        <v>0.02824520810241377</v>
+        <v>-0.0379002051563691</v>
       </c>
       <c r="C399" t="n">
-        <v>-0.5331156574895068</v>
+        <v>-0.005430612149824013</v>
+      </c>
+      <c r="D399" t="n">
+        <v>-0.7137214409177286</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>-1.172444279253985</v>
+        <v>-1.472504342998802</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.05955408514172098</v>
+        <v>0.07524036057919402</v>
       </c>
       <c r="C400" t="n">
-        <v>-1.231998364395706</v>
+        <v>0.01248062994696415</v>
+      </c>
+      <c r="D400" t="n">
+        <v>-1.384783352472644</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>-0.915836065924941</v>
+        <v>-1.145190771816012</v>
       </c>
       <c r="B401" t="n">
-        <v>-0.01893631967157663</v>
+        <v>0.03164416325227307</v>
       </c>
       <c r="C401" t="n">
-        <v>-0.9347723855965177</v>
+        <v>0.01835565285521713</v>
+      </c>
+      <c r="D401" t="n">
+        <v>-1.095190955708522</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>1.441655692273329</v>
+        <v>1.948670195276397</v>
       </c>
       <c r="B402" t="n">
-        <v>0.07769453086398843</v>
+        <v>-0.1992160445736484</v>
       </c>
       <c r="C402" t="n">
-        <v>1.519350223137318</v>
+        <v>-0.1785166598047103</v>
+      </c>
+      <c r="D402" t="n">
+        <v>1.570937490898038</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>-0.8680086687574258</v>
+        <v>-1.085204145868105</v>
       </c>
       <c r="B403" t="n">
-        <v>-0.01454834218518079</v>
+        <v>0.02697541188503626</v>
       </c>
       <c r="C403" t="n">
-        <v>-0.8825570109426065</v>
+        <v>0.01898336012060466</v>
+      </c>
+      <c r="D403" t="n">
+        <v>-1.039245373862464</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>-0.4952410036113728</v>
+        <v>-0.5895344080676174</v>
       </c>
       <c r="B404" t="n">
-        <v>0.02639042261898763</v>
+        <v>-0.03609583556566828</v>
       </c>
       <c r="C404" t="n">
-        <v>-0.4688505809923852</v>
+        <v>-0.006281022208253361</v>
+      </c>
+      <c r="D404" t="n">
+        <v>-0.631911265841539</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>-0.5346526535955776</v>
+        <v>-0.645454299815382</v>
       </c>
       <c r="B405" t="n">
-        <v>0.05776893804105163</v>
+        <v>-0.05706976781675078</v>
       </c>
       <c r="C405" t="n">
-        <v>-0.4768837155545259</v>
+        <v>0.01955658319782819</v>
+      </c>
+      <c r="D405" t="n">
+        <v>-0.6829674844343047</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>-0.732576415440787</v>
+        <v>-0.9234537187766138</v>
       </c>
       <c r="B406" t="n">
-        <v>0.01469866302205489</v>
+        <v>0.005546314794598019</v>
       </c>
       <c r="C406" t="n">
-        <v>-0.7178777524187321</v>
+        <v>0.03941764159241602</v>
+      </c>
+      <c r="D406" t="n">
+        <v>-0.8784897623895997</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>-1.213034573745275</v>
+        <v>-1.503735466429182</v>
       </c>
       <c r="B407" t="n">
-        <v>-0.06716259802327247</v>
+        <v>0.0678253897811974</v>
       </c>
       <c r="C407" t="n">
-        <v>-1.280197171768547</v>
+        <v>-0.01371011385904687</v>
+      </c>
+      <c r="D407" t="n">
+        <v>-1.449620190507032</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>0.6960391444663486</v>
+        <v>0.8617425781519925</v>
       </c>
       <c r="B408" t="n">
-        <v>0.1123786699215601</v>
+        <v>-0.1006784749197699</v>
       </c>
       <c r="C408" t="n">
-        <v>0.8084178143879087</v>
+        <v>0.0483803726912724</v>
+      </c>
+      <c r="D408" t="n">
+        <v>0.8094444759234949</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>-0.5388507250733688</v>
+        <v>-0.662023893254435</v>
       </c>
       <c r="B409" t="n">
-        <v>0.02581790398921201</v>
+        <v>-0.02148077122570934</v>
       </c>
       <c r="C409" t="n">
-        <v>-0.5130328210841568</v>
+        <v>0.01630148930938922</v>
+      </c>
+      <c r="D409" t="n">
+        <v>-0.6672031751707551</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>1.453096467635268</v>
+        <v>1.800912854302423</v>
       </c>
       <c r="B410" t="n">
-        <v>0.09838629375060982</v>
+        <v>-0.09613659461934804</v>
       </c>
       <c r="C410" t="n">
-        <v>1.551482761385878</v>
+        <v>0.02643882669556599</v>
+      </c>
+      <c r="D410" t="n">
+        <v>1.731215086378641</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>-0.7526676536580214</v>
+        <v>-0.937004917384758</v>
       </c>
       <c r="B411" t="n">
-        <v>0.006673930271798203</v>
+        <v>0.004063436867029856</v>
       </c>
       <c r="C411" t="n">
-        <v>-0.7459937233862232</v>
+        <v>0.02190616571151422</v>
+      </c>
+      <c r="D411" t="n">
+        <v>-0.9110353148062139</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>-1.068756350356814</v>
+        <v>-1.335964160905569</v>
       </c>
       <c r="B412" t="n">
-        <v>-0.04274499560678904</v>
+        <v>0.05409601798636378</v>
       </c>
       <c r="C412" t="n">
-        <v>-1.111501345963603</v>
+        <v>0.00993027936908266</v>
+      </c>
+      <c r="D412" t="n">
+        <v>-1.271937863550123</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>-1.186516267757536</v>
+        <v>-1.469456137017439</v>
       </c>
       <c r="B413" t="n">
-        <v>-0.05351523120030999</v>
+        <v>0.05497263661956336</v>
       </c>
       <c r="C413" t="n">
-        <v>-1.240031498957846</v>
+        <v>-0.008631769538243171</v>
+      </c>
+      <c r="D413" t="n">
+        <v>-1.423115269936119</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>-1.726434465022856</v>
+        <v>-2.176168725144475</v>
       </c>
       <c r="B414" t="n">
-        <v>-0.1735190382148087</v>
+        <v>0.1894137646386645</v>
       </c>
       <c r="C414" t="n">
-        <v>-1.899953503237664</v>
+        <v>-0.01771235245955307</v>
+      </c>
+      <c r="D414" t="n">
+        <v>-2.004467312965364</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>0.2513082706148642</v>
+        <v>0.3376190862149453</v>
       </c>
       <c r="B415" t="n">
-        <v>0.09520430644998215</v>
+        <v>-0.1023911710942978</v>
       </c>
       <c r="C415" t="n">
-        <v>0.3465125770648463</v>
+        <v>0.01470942253282395</v>
+      </c>
+      <c r="D415" t="n">
+        <v>0.2499373376534714</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>0.3313102150903587</v>
+        <v>0.383345990469202</v>
       </c>
       <c r="B416" t="n">
-        <v>0.07143430390946938</v>
+        <v>-0.04312248638475612</v>
       </c>
       <c r="C416" t="n">
-        <v>0.402744518999828</v>
+        <v>0.06473354809350801</v>
+      </c>
+      <c r="D416" t="n">
+        <v>0.4049570521779539</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>-0.8939404530955826</v>
+        <v>-1.100398677396731</v>
       </c>
       <c r="B417" t="n">
-        <v>-0.004682826971304109</v>
+        <v>0.006210647574818881</v>
       </c>
       <c r="C417" t="n">
-        <v>-0.8986232800668866</v>
+        <v>0.004362274613906585</v>
+      </c>
+      <c r="D417" t="n">
+        <v>-1.089825755208005</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>-1.720001235923637</v>
+        <v>-2.174494950359374</v>
       </c>
       <c r="B418" t="n">
-        <v>-0.176739013489172</v>
+        <v>0.1967821243813172</v>
       </c>
       <c r="C418" t="n">
-        <v>-1.896740249412809</v>
+        <v>-0.01198219857981129</v>
+      </c>
+      <c r="D418" t="n">
+        <v>-1.989695024557868</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>0.5737433526300436</v>
+        <v>0.7284025463425092</v>
       </c>
       <c r="B419" t="n">
-        <v>-0.02238584423062191</v>
+        <v>0.001020451663018781</v>
       </c>
       <c r="C419" t="n">
-        <v>0.5513575083994217</v>
+        <v>-0.04283858976763001</v>
+      </c>
+      <c r="D419" t="n">
+        <v>0.686584408237898</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>-0.6081911224490719</v>
+        <v>-0.7602572413780304</v>
       </c>
       <c r="B420" t="n">
-        <v>0.03490979214886332</v>
+        <v>-0.01941194870441213</v>
       </c>
       <c r="C420" t="n">
-        <v>-0.5732813303002086</v>
+        <v>0.03710100258922933</v>
+      </c>
+      <c r="D420" t="n">
+        <v>-0.7425681874932132</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>-1.148138165935192</v>
+        <v>-1.437408055954639</v>
       </c>
       <c r="B421" t="n">
-        <v>-0.04369452564981271</v>
+        <v>0.05787934462920405</v>
       </c>
       <c r="C421" t="n">
-        <v>-1.191832691585005</v>
+        <v>0.01450528894097652</v>
+      </c>
+      <c r="D421" t="n">
+        <v>-1.365023422384458</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>-1.006672659885064</v>
+        <v>-1.244555950711864</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.02048077317606568</v>
+        <v>0.0238997083528238</v>
       </c>
       <c r="C422" t="n">
-        <v>-1.02715343306113</v>
+        <v>0.003302641038853553</v>
+      </c>
+      <c r="D422" t="n">
+        <v>-1.217353601320187</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>0.1154429938057526</v>
+        <v>0.2431967638120094</v>
       </c>
       <c r="B423" t="n">
-        <v>0.1105725648269901</v>
+        <v>-0.169360251180411</v>
       </c>
       <c r="C423" t="n">
-        <v>0.2260155586327428</v>
+        <v>-0.06341157932474237</v>
+      </c>
+      <c r="D423" t="n">
+        <v>0.01042493330685607</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>-1.001656151689669</v>
+        <v>-1.210448184771581</v>
       </c>
       <c r="B424" t="n">
-        <v>-0.009431012247181379</v>
+        <v>-0.006300193239022547</v>
       </c>
       <c r="C424" t="n">
-        <v>-1.01108716393685</v>
+        <v>-0.02436435602274895</v>
+      </c>
+      <c r="D424" t="n">
+        <v>-1.241112734033352</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>-0.2539058281246563</v>
+        <v>-0.2668293730405408</v>
       </c>
       <c r="B425" t="n">
-        <v>0.06621495680717837</v>
+        <v>-0.08956083798647951</v>
       </c>
       <c r="C425" t="n">
-        <v>-0.1876908713174779</v>
+        <v>-0.01772726573731272</v>
+      </c>
+      <c r="D425" t="n">
+        <v>-0.374117476764333</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>-1.615117018714424</v>
+        <v>-2.033386140412765</v>
       </c>
       <c r="B426" t="n">
-        <v>-0.1462649133263212</v>
+        <v>0.1617455807212035</v>
       </c>
       <c r="C426" t="n">
-        <v>-1.761381932040746</v>
+        <v>-0.01100094277623628</v>
+      </c>
+      <c r="D426" t="n">
+        <v>-1.882641502467798</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>-1.521883367163881</v>
+        <v>-1.927270792951273</v>
       </c>
       <c r="B427" t="n">
-        <v>-0.1238214271820463</v>
+        <v>0.1489395263585513</v>
       </c>
       <c r="C427" t="n">
-        <v>-1.645704794345927</v>
+        <v>0.01057069984747916</v>
+      </c>
+      <c r="D427" t="n">
+        <v>-1.767760566745243</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>-1.378619087709551</v>
+        <v>-1.707931195068825</v>
       </c>
       <c r="B428" t="n">
-        <v>-0.08634017898822061</v>
+        <v>0.08476890569671137</v>
       </c>
       <c r="C428" t="n">
-        <v>-1.464959266697772</v>
+        <v>-0.0221784478201961</v>
+      </c>
+      <c r="D428" t="n">
+        <v>-1.645340737192309</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>-1.261462495582178</v>
+        <v>-1.581358500420257</v>
       </c>
       <c r="B429" t="n">
-        <v>-0.07496661812135058</v>
+        <v>0.08798686113479161</v>
       </c>
       <c r="C429" t="n">
-        <v>-1.336429113703528</v>
+        <v>0.004114741119764459</v>
+      </c>
+      <c r="D429" t="n">
+        <v>-1.489256898165701</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>-1.1525541494612</v>
+        <v>-1.452450996233691</v>
       </c>
       <c r="B430" t="n">
-        <v>-0.05132824396701484</v>
+        <v>0.07152170617743585</v>
       </c>
       <c r="C430" t="n">
-        <v>-1.203882393428215</v>
+        <v>0.02200693109766473</v>
+      </c>
+      <c r="D430" t="n">
+        <v>-1.35892235895859</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>-0.591504724427675</v>
+        <v>-0.7442730960902501</v>
       </c>
       <c r="B431" t="n">
-        <v>0.02625652868960723</v>
+        <v>-0.008723758614690562</v>
       </c>
       <c r="C431" t="n">
-        <v>-0.5652481957380677</v>
+        <v>0.03784320566517065</v>
+      </c>
+      <c r="D431" t="n">
+        <v>-0.71515364903977</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>0.215737284922931</v>
+        <v>0.417388216052976</v>
       </c>
       <c r="B432" t="n">
-        <v>0.09462618661228429</v>
+        <v>-0.1939168610808463</v>
       </c>
       <c r="C432" t="n">
-        <v>0.3103634715352153</v>
+        <v>-0.1334781793137871</v>
+      </c>
+      <c r="D432" t="n">
+        <v>0.08999317565834267</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>-0.7231411231154218</v>
+        <v>-0.8400249841680933</v>
       </c>
       <c r="B433" t="n">
-        <v>0.02936277438311046</v>
+        <v>-0.06043963423400861</v>
       </c>
       <c r="C433" t="n">
-        <v>-0.6937783487323114</v>
+        <v>-0.03898254422685436</v>
+      </c>
+      <c r="D433" t="n">
+        <v>-0.9394471626289562</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>2.412373645265831</v>
+        <v>2.964519874014757</v>
       </c>
       <c r="B434" t="n">
-        <v>0.01873735067440071</v>
+        <v>-0.01820376871805402</v>
       </c>
       <c r="C434" t="n">
-        <v>2.431110995940232</v>
+        <v>-0.002540139464360739</v>
+      </c>
+      <c r="D434" t="n">
+        <v>2.943775965832342</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>1.857695275923586</v>
+        <v>2.271436323090195</v>
       </c>
       <c r="B435" t="n">
-        <v>0.02716256979111111</v>
+        <v>-0.01627456449904603</v>
       </c>
       <c r="C435" t="n">
-        <v>1.884857845714697</v>
+        <v>0.01853207992697829</v>
+      </c>
+      <c r="D435" t="n">
+        <v>2.273693838518127</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>0.1849788983979829</v>
+        <v>0.2206625432221834</v>
       </c>
       <c r="B436" t="n">
-        <v>0.1093183040129516</v>
+        <v>-0.08786592776309049</v>
       </c>
       <c r="C436" t="n">
-        <v>0.2942972024109345</v>
+        <v>0.06504654047048092</v>
+      </c>
+      <c r="D436" t="n">
+        <v>0.1978431559295738</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>-0.1409725129107248</v>
+        <v>-0.1351259879576457</v>
       </c>
       <c r="B437" t="n">
-        <v>0.08181179458749037</v>
+        <v>-0.09761161619658573</v>
       </c>
       <c r="C437" t="n">
-        <v>-0.05916071832323445</v>
+        <v>-0.001545821345743175</v>
+      </c>
+      <c r="D437" t="n">
+        <v>-0.2342834254999746</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>-0.545492904288129</v>
+        <v>-0.6664690499557374</v>
       </c>
       <c r="B438" t="n">
-        <v>0.04049321776611227</v>
+        <v>-0.03668292028532839</v>
       </c>
       <c r="C438" t="n">
-        <v>-0.5049996865220168</v>
+        <v>0.01966797667674846</v>
+      </c>
+      <c r="D438" t="n">
+        <v>-0.6834839935643173</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>-0.1053931254069083</v>
+        <v>-0.1380106193563032</v>
       </c>
       <c r="B439" t="n">
-        <v>0.07033181077009398</v>
+        <v>-0.05317275283544746</v>
       </c>
       <c r="C439" t="n">
-        <v>-0.03506131463681432</v>
+        <v>0.04806287403426211</v>
+      </c>
+      <c r="D439" t="n">
+        <v>-0.1431204981574886</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>-0.1809566815247049</v>
+        <v>-0.2258632436091279</v>
       </c>
       <c r="B440" t="n">
-        <v>0.06958058854755872</v>
+        <v>-0.05619503291775028</v>
       </c>
       <c r="C440" t="n">
-        <v>-0.1113760929771462</v>
+        <v>0.04205263079508523</v>
+      </c>
+      <c r="D440" t="n">
+        <v>-0.240005645731793</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>-0.1188617886371109</v>
+        <v>-0.153516579433799</v>
       </c>
       <c r="B441" t="n">
-        <v>0.07576733943815653</v>
+        <v>-0.05854575984526997</v>
       </c>
       <c r="C441" t="n">
-        <v>-0.04309444919895436</v>
+        <v>0.04976413696584925</v>
+      </c>
+      <c r="D441" t="n">
+        <v>-0.1622982023132197</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>-1.203993096456925</v>
+        <v>-1.464451123562461</v>
       </c>
       <c r="B442" t="n">
-        <v>-0.06415437346841139</v>
+        <v>0.04426516484117164</v>
       </c>
       <c r="C442" t="n">
-        <v>-1.268147469925336</v>
+        <v>-0.04594251094150564</v>
+      </c>
+      <c r="D442" t="n">
+        <v>-1.466128469662795</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>1.182002846537929</v>
+        <v>1.451100487504682</v>
       </c>
       <c r="B443" t="n">
-        <v>0.08028707061090158</v>
+        <v>-0.06810902630735303</v>
       </c>
       <c r="C443" t="n">
-        <v>1.26228991714883</v>
+        <v>0.03822454765624191</v>
+      </c>
+      <c r="D443" t="n">
+        <v>1.421216008853571</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>-0.2084889314465754</v>
+        <v>-0.2557120620581837</v>
       </c>
       <c r="B444" t="n">
-        <v>0.06899686750193837</v>
+        <v>-0.05864446673363091</v>
       </c>
       <c r="C444" t="n">
-        <v>-0.139492063944637</v>
+        <v>0.03710690338209385</v>
+      </c>
+      <c r="D444" t="n">
+        <v>-0.2772496254097208</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>-1.345863619959913</v>
+        <v>-1.697146389915333</v>
       </c>
       <c r="B445" t="n">
-        <v>-0.08294654120822775</v>
+        <v>0.1038280830917723</v>
       </c>
       <c r="C445" t="n">
-        <v>-1.428810161168141</v>
+        <v>0.01478763869049846</v>
+      </c>
+      <c r="D445" t="n">
+        <v>-1.578530668133062</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>1.457710758981765</v>
+        <v>1.797554160718342</v>
       </c>
       <c r="B446" t="n">
-        <v>0.1098382715283944</v>
+        <v>-0.09911591884675636</v>
       </c>
       <c r="C446" t="n">
-        <v>1.567549030510159</v>
+        <v>0.04332015418551468</v>
+      </c>
+      <c r="D446" t="n">
+        <v>1.741758396057101</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>-0.8587744848565101</v>
+        <v>-1.042649114101776</v>
       </c>
       <c r="B447" t="n">
-        <v>0.0003168776003242827</v>
+        <v>-0.008895537573862709</v>
       </c>
       <c r="C447" t="n">
-        <v>-0.8584576072561858</v>
+        <v>-0.01059437718179767</v>
+      </c>
+      <c r="D447" t="n">
+        <v>-1.062139028857436</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>1.384585709393015</v>
+        <v>1.733057459465137</v>
       </c>
       <c r="B448" t="n">
-        <v>0.07049943724718127</v>
+        <v>-0.08461407567158299</v>
       </c>
       <c r="C448" t="n">
-        <v>1.455085146640196</v>
+        <v>-0.007596975896292272</v>
+      </c>
+      <c r="D448" t="n">
+        <v>1.640846407897262</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>0.1751413892237186</v>
+        <v>0.2361812316145144</v>
       </c>
       <c r="B449" t="n">
-        <v>0.09505640950079589</v>
+        <v>-0.09634971683811937</v>
       </c>
       <c r="C449" t="n">
-        <v>0.2701977987245144</v>
+        <v>0.0244233517429558</v>
+      </c>
+      <c r="D449" t="n">
+        <v>0.1642548665193508</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>0.0905503588373784</v>
+        <v>0.128307930116963</v>
       </c>
       <c r="B450" t="n">
-        <v>0.07120012329824263</v>
+        <v>-0.07312686532513368</v>
       </c>
       <c r="C450" t="n">
-        <v>0.161750482135621</v>
+        <v>0.01690019094755581</v>
+      </c>
+      <c r="D450" t="n">
+        <v>0.07208125573938513</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>2.866621028957556</v>
+        <v>3.437446935972263</v>
       </c>
       <c r="B451" t="n">
-        <v>-0.06598584315887387</v>
+        <v>0.1167414029033687</v>
       </c>
       <c r="C451" t="n">
-        <v>2.800635185798682</v>
+        <v>0.05240744085522738</v>
+      </c>
+      <c r="D451" t="n">
+        <v>3.606595779730859</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>-0.9015769720167462</v>
+        <v>-1.096156031391789</v>
       </c>
       <c r="B452" t="n">
-        <v>-0.005079442612281249</v>
+        <v>-0.003604180234555467</v>
       </c>
       <c r="C452" t="n">
-        <v>-0.9066564146290275</v>
+        <v>-0.0121486582996968</v>
+      </c>
+      <c r="D452" t="n">
+        <v>-1.111908869926041</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>2.175230940048983</v>
+        <v>2.625776885703</v>
       </c>
       <c r="B453" t="n">
-        <v>0.01890258630811245</v>
+        <v>0.01716163744779695</v>
       </c>
       <c r="C453" t="n">
-        <v>2.194133526357096</v>
+        <v>0.05551900919375435</v>
+      </c>
+      <c r="D453" t="n">
+        <v>2.698457532344551</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>-0.8543529001225796</v>
+        <v>-1.05903935030891</v>
       </c>
       <c r="B454" t="n">
-        <v>-8.813985253622086e-05</v>
+        <v>0.007712133108861135</v>
       </c>
       <c r="C454" t="n">
-        <v>-0.8544410399751158</v>
+        <v>0.01533637370965114</v>
+      </c>
+      <c r="D454" t="n">
+        <v>-1.035990843490398</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>0.05937855304768621</v>
+        <v>0.0936341028624048</v>
       </c>
       <c r="B455" t="n">
-        <v>0.1023719290879348</v>
+        <v>-0.1022232045824673</v>
       </c>
       <c r="C455" t="n">
-        <v>0.161750482135621</v>
+        <v>0.02925128464530176</v>
+      </c>
+      <c r="D455" t="n">
+        <v>0.0206621829252393</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>-0.6284806684867945</v>
+        <v>-0.7830228800722997</v>
       </c>
       <c r="B456" t="n">
-        <v>0.02306679993802507</v>
+        <v>-0.01097134284582959</v>
       </c>
       <c r="C456" t="n">
-        <v>-0.6054138685487694</v>
+        <v>0.02832054850219392</v>
+      </c>
+      <c r="D456" t="n">
+        <v>-0.7656736744159354</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>-0.34653839488502</v>
+        <v>-0.4167310689245395</v>
       </c>
       <c r="B457" t="n">
-        <v>0.04638363969757929</v>
+        <v>-0.04577784205099064</v>
       </c>
       <c r="C457" t="n">
-        <v>-0.3001547551874407</v>
+        <v>0.01547370925678574</v>
+      </c>
+      <c r="D457" t="n">
+        <v>-0.4470352017187444</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>-0.9837631031215741</v>
+        <v>-1.209908037727531</v>
       </c>
       <c r="B458" t="n">
-        <v>-0.01929092625313528</v>
+        <v>0.01802765988191322</v>
       </c>
       <c r="C458" t="n">
-        <v>-1.003054029374709</v>
+        <v>-0.003972183467406917</v>
+      </c>
+      <c r="D458" t="n">
+        <v>-1.195852561313025</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>-0.4194931426928939</v>
+        <v>-0.5295862295764751</v>
       </c>
       <c r="B459" t="n">
-        <v>0.0510567437272615</v>
+        <v>-0.03237169520906272</v>
       </c>
       <c r="C459" t="n">
-        <v>-0.3684363989656325</v>
+        <v>0.04615342213468458</v>
+      </c>
+      <c r="D459" t="n">
+        <v>-0.5158045026508532</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>-0.4972632902717141</v>
+        <v>-0.6285333652361768</v>
       </c>
       <c r="B460" t="n">
-        <v>0.04447897840360903</v>
+        <v>-0.02420474663128243</v>
       </c>
       <c r="C460" t="n">
-        <v>-0.452784311868105</v>
+        <v>0.04711372025373862</v>
+      </c>
+      <c r="D460" t="n">
+        <v>-0.6056243916137206</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>-1.610092948888333</v>
+        <v>-2.035237669526937</v>
       </c>
       <c r="B461" t="n">
-        <v>-0.1460674456870212</v>
+        <v>0.1675560383815803</v>
       </c>
       <c r="C461" t="n">
-        <v>-1.756160394575354</v>
+        <v>-0.001298869284765096</v>
+      </c>
+      <c r="D461" t="n">
+        <v>-1.868980500430122</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>1.148068734281205</v>
+        <v>1.394773917780374</v>
       </c>
       <c r="B462" t="n">
-        <v>0.03790640452729319</v>
+        <v>-0.02125558943417638</v>
       </c>
       <c r="C462" t="n">
-        <v>1.185975138808498</v>
+        <v>0.03344241775197519</v>
+      </c>
+      <c r="D462" t="n">
+        <v>1.406960746098173</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>6.382237390878043</v>
+        <v>7.466625808624288</v>
       </c>
       <c r="B463" t="n">
-        <v>-1.043131683443052</v>
+        <v>1.15849397598606</v>
       </c>
       <c r="C463" t="n">
-        <v>5.339105707434991</v>
+        <v>-0.1353964854972244</v>
+      </c>
+      <c r="D463" t="n">
+        <v>8.489723299113123</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>0.03709192578527359</v>
+        <v>0.03707108826642248</v>
       </c>
       <c r="B464" t="n">
-        <v>0.07244318169643643</v>
+        <v>-0.0550878906286172</v>
       </c>
       <c r="C464" t="n">
-        <v>0.10953510748171</v>
+        <v>0.04846462857006519</v>
+      </c>
+      <c r="D464" t="n">
+        <v>0.03044782620787046</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>-0.9946145562299706</v>
+        <v>-1.2423341510349</v>
       </c>
       <c r="B465" t="n">
-        <v>-0.02048917498794949</v>
+        <v>0.0332850859288053</v>
       </c>
       <c r="C465" t="n">
-        <v>-1.01510373121792</v>
+        <v>0.01833964227245471</v>
+      </c>
+      <c r="D465" t="n">
+        <v>-1.19070942283364</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>-0.4287329278017322</v>
+        <v>-0.53285178795726</v>
       </c>
       <c r="B466" t="n">
-        <v>0.04423025971181893</v>
+        <v>-0.03260728829603463</v>
       </c>
       <c r="C466" t="n">
-        <v>-0.3845026680899133</v>
+        <v>0.03287840675501354</v>
+      </c>
+      <c r="D466" t="n">
+        <v>-0.5325806694982811</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>-0.4034128705488075</v>
+        <v>-0.4505249080224303</v>
       </c>
       <c r="B467" t="n">
-        <v>0.0470261734263852</v>
+        <v>-0.07317710933931645</v>
       </c>
       <c r="C467" t="n">
-        <v>-0.3563866971224223</v>
+        <v>-0.0271755523880034</v>
+      </c>
+      <c r="D467" t="n">
+        <v>-0.5508775697497501</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>-0.4355622124211356</v>
+        <v>-0.4979611635079821</v>
       </c>
       <c r="B468" t="n">
-        <v>0.03900984248801236</v>
+        <v>-0.06044185357366236</v>
       </c>
       <c r="C468" t="n">
-        <v>-0.3965523699331233</v>
+        <v>-0.02175712552330901</v>
+      </c>
+      <c r="D468" t="n">
+        <v>-0.5801601426049535</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>-1.636816004085671</v>
+        <v>-2.071818233315425</v>
       </c>
       <c r="B469" t="n">
-        <v>-0.1542885258349937</v>
+        <v>0.177338055435633</v>
       </c>
       <c r="C469" t="n">
-        <v>-1.791104529920665</v>
+        <v>-0.001038287361079121</v>
+      </c>
+      <c r="D469" t="n">
+        <v>-1.895518465240871</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>1.352249262116043</v>
+        <v>1.747097458210175</v>
       </c>
       <c r="B470" t="n">
-        <v>0.04258737530810164</v>
+        <v>-0.1010159470114262</v>
       </c>
       <c r="C470" t="n">
-        <v>1.394836637424145</v>
+        <v>-0.08672885491837298</v>
+      </c>
+      <c r="D470" t="n">
+        <v>1.559352656280376</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>-0.9984412175024361</v>
+        <v>-1.185920975212824</v>
       </c>
       <c r="B471" t="n">
-        <v>-0.00862937915334407</v>
+        <v>-0.02232147660860183</v>
       </c>
       <c r="C471" t="n">
-        <v>-1.00707059665578</v>
+        <v>-0.04862837706013053</v>
+      </c>
+      <c r="D471" t="n">
+        <v>-1.256870828881556</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>-1.631385796565135</v>
+        <v>-2.057159020192314</v>
       </c>
       <c r="B472" t="n">
-        <v>-0.1601203900836367</v>
+        <v>0.1763220902512515</v>
       </c>
       <c r="C472" t="n">
-        <v>-1.791506186648772</v>
+        <v>-0.01373791123865422</v>
+      </c>
+      <c r="D472" t="n">
+        <v>-1.894574841179717</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>-0.8314377421511672</v>
+        <v>-1.038445532790972</v>
       </c>
       <c r="B473" t="n">
-        <v>-0.006937028699668414</v>
+        <v>0.01913480617227554</v>
       </c>
       <c r="C473" t="n">
-        <v>-0.8383747708508356</v>
+        <v>0.0206549648794868</v>
+      </c>
+      <c r="D473" t="n">
+        <v>-0.9986557617392092</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>0.223574912268544</v>
+        <v>0.2892751076067178</v>
       </c>
       <c r="B474" t="n">
-        <v>0.09482169382881145</v>
+        <v>-0.09140778623750218</v>
       </c>
       <c r="C474" t="n">
-        <v>0.3183966060973554</v>
+        <v>0.03175239195215521</v>
+      </c>
+      <c r="D474" t="n">
+        <v>0.2296197133213708</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>-0.7540754126291688</v>
+        <v>-0.9617204131741866</v>
       </c>
       <c r="B475" t="n">
-        <v>0.008081689242945679</v>
+        <v>0.0200063633768945</v>
       </c>
       <c r="C475" t="n">
-        <v>-0.7459937233862231</v>
+        <v>0.05022224841862375</v>
+      </c>
+      <c r="D475" t="n">
+        <v>-0.8914918013786682</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>-1.247407310702394</v>
+        <v>-1.531293218263939</v>
       </c>
       <c r="B476" t="n">
-        <v>-0.05688926475257389</v>
+        <v>0.04820680005247546</v>
       </c>
       <c r="C476" t="n">
-        <v>-1.304296575454967</v>
+        <v>-0.02568451682213653</v>
+      </c>
+      <c r="D476" t="n">
+        <v>-1.5087709350336</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>-0.5581515326126105</v>
+        <v>-0.6715669422891967</v>
       </c>
       <c r="B477" t="n">
-        <v>0.03708557696631359</v>
+        <v>-0.04157871846661124</v>
       </c>
       <c r="C477" t="n">
-        <v>-0.5210659556462969</v>
+        <v>0.005384680193284342</v>
+      </c>
+      <c r="D477" t="n">
+        <v>-0.7077609805625236</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>-0.05878078059797444</v>
+        <v>-0.03733263391238448</v>
       </c>
       <c r="B478" t="n">
-        <v>0.08798454245828188</v>
+        <v>-0.1005289747023866</v>
       </c>
       <c r="C478" t="n">
-        <v>0.02920376186030745</v>
+        <v>0.005154843045684082</v>
+      </c>
+      <c r="D478" t="n">
+        <v>-0.132706765569087</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>-0.1572398904594549</v>
+        <v>-0.1996107670742388</v>
       </c>
       <c r="B479" t="n">
-        <v>0.06594663388765959</v>
+        <v>-0.0509817372918805</v>
       </c>
       <c r="C479" t="n">
-        <v>-0.09129325657179532</v>
+        <v>0.04346953965033411</v>
+      </c>
+      <c r="D479" t="n">
+        <v>-0.2071229647157852</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>-1.032392133382927</v>
+        <v>-1.270553861029161</v>
       </c>
       <c r="B480" t="n">
-        <v>-0.02689383792676405</v>
+        <v>0.02517891848629433</v>
       </c>
       <c r="C480" t="n">
-        <v>-1.059285971309691</v>
+        <v>-0.006692982730711949</v>
+      </c>
+      <c r="D480" t="n">
+        <v>-1.252067925273579</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>0.749905395575275</v>
+        <v>1.036623393622249</v>
       </c>
       <c r="B481" t="n">
-        <v>0.1026946589044047</v>
+        <v>-0.1735432178607507</v>
       </c>
       <c r="C481" t="n">
-        <v>0.8526000544796797</v>
+        <v>-0.08736173100020239</v>
+      </c>
+      <c r="D481" t="n">
+        <v>0.7757184447612961</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>-0.7964784835444665</v>
+        <v>-0.9756142500683597</v>
       </c>
       <c r="B482" t="n">
-        <v>0.006302520066472453</v>
+        <v>-0.006932082219770343</v>
       </c>
       <c r="C482" t="n">
-        <v>-0.790175963477994</v>
+        <v>0.003674976501904527</v>
+      </c>
+      <c r="D482" t="n">
+        <v>-0.9788713557862255</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>-0.150201095603718</v>
+        <v>-0.1995914120897267</v>
       </c>
       <c r="B483" t="n">
-        <v>0.05890783903192265</v>
+        <v>-0.0385894348884467</v>
       </c>
       <c r="C483" t="n">
-        <v>-0.09129325657179532</v>
+        <v>0.05004569126669155</v>
+      </c>
+      <c r="D483" t="n">
+        <v>-0.1881351557114818</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>-0.350384660385214</v>
+        <v>-0.3964765116494749</v>
       </c>
       <c r="B484" t="n">
-        <v>0.08637901072740428</v>
+        <v>-0.09829293153740999</v>
       </c>
       <c r="C484" t="n">
-        <v>-0.2640056496578098</v>
+        <v>0.006768096535626025</v>
+      </c>
+      <c r="D484" t="n">
+        <v>-0.4880013466512589</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>-0.2543192473894005</v>
+        <v>-0.3076128292295499</v>
       </c>
       <c r="B485" t="n">
-        <v>0.08269464519620261</v>
+        <v>-0.07350366243102952</v>
       </c>
       <c r="C485" t="n">
-        <v>-0.1716246021931979</v>
+        <v>0.03931566599779009</v>
+      </c>
+      <c r="D485" t="n">
+        <v>-0.3418008256627894</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>0.5075142670950085</v>
+        <v>0.6722232832394095</v>
       </c>
       <c r="B486" t="n">
-        <v>0.1362242887690258</v>
+        <v>-0.1521311528508427</v>
       </c>
       <c r="C486" t="n">
-        <v>0.6437385558640343</v>
+        <v>0.01146526662353666</v>
+      </c>
+      <c r="D486" t="n">
+        <v>0.5315573970121035</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>-0.69520105513673</v>
+        <v>-0.7843831056309584</v>
       </c>
       <c r="B487" t="n">
-        <v>0.02150554280976879</v>
+        <v>-0.06969075634367053</v>
       </c>
       <c r="C487" t="n">
-        <v>-0.6736955123269612</v>
+        <v>-0.06884638012384378</v>
+      </c>
+      <c r="D487" t="n">
+        <v>-0.9229202420984727</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>0.1253113096235906</v>
+        <v>0.1557371164222554</v>
       </c>
       <c r="B488" t="n">
-        <v>0.08062141260380205</v>
+        <v>-0.0697485688813108</v>
       </c>
       <c r="C488" t="n">
-        <v>0.2059327222273927</v>
+        <v>0.04005242314362841</v>
+      </c>
+      <c r="D488" t="n">
+        <v>0.126040970684573</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>2.096840663573047</v>
+        <v>2.571357469496601</v>
       </c>
       <c r="B489" t="n">
-        <v>0.03704435356799743</v>
+        <v>-0.02938233487828943</v>
       </c>
       <c r="C489" t="n">
-        <v>2.133885017141045</v>
+        <v>0.01529704802250442</v>
+      </c>
+      <c r="D489" t="n">
+        <v>2.557272182640816</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>-0.9628618299986192</v>
+        <v>-1.178092474475993</v>
       </c>
       <c r="B490" t="n">
-        <v>-0.02010936297073999</v>
+        <v>0.01413123632310623</v>
       </c>
       <c r="C490" t="n">
-        <v>-0.9829711929693592</v>
+        <v>-0.01186562663549255</v>
+      </c>
+      <c r="D490" t="n">
+        <v>-1.175826864788379</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>0.9223331971787617</v>
+        <v>1.113061380416498</v>
       </c>
       <c r="B491" t="n">
-        <v>0.106995817668003</v>
+        <v>-0.076378887348675</v>
       </c>
       <c r="C491" t="n">
-        <v>1.029329014846765</v>
+        <v>0.07645104446676884</v>
+      </c>
+      <c r="D491" t="n">
+        <v>1.113133537534592</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>-0.7558797872412928</v>
+        <v>-0.9451093187801427</v>
       </c>
       <c r="B492" t="n">
-        <v>0.001852929292929751</v>
+        <v>0.01125128506379694</v>
       </c>
       <c r="C492" t="n">
-        <v>-0.754026857948363</v>
+        <v>0.02434854840686134</v>
+      </c>
+      <c r="D492" t="n">
+        <v>-0.9095094853094845</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>1.425784930365576</v>
+        <v>1.70239776019993</v>
       </c>
       <c r="B493" t="n">
-        <v>0.06946588908532127</v>
+        <v>-0.02318085521567799</v>
       </c>
       <c r="C493" t="n">
-        <v>1.495250819450898</v>
+        <v>0.08911309554728061</v>
+      </c>
+      <c r="D493" t="n">
+        <v>1.768330000531533</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>1.487882623857131</v>
+        <v>1.843542545201018</v>
       </c>
       <c r="B494" t="n">
-        <v>0.07163327209088774</v>
+        <v>-0.07340841941544483</v>
       </c>
       <c r="C494" t="n">
-        <v>1.559515895948019</v>
+        <v>0.01220056581643533</v>
+      </c>
+      <c r="D494" t="n">
+        <v>1.782334691602009</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>-0.6919861209494969</v>
+        <v>-0.8774622799595609</v>
       </c>
       <c r="B495" t="n">
-        <v>0.0223071759036063</v>
+        <v>0.001958145000935929</v>
       </c>
       <c r="C495" t="n">
-        <v>-0.6696789450458905</v>
+        <v>0.04790952790436545</v>
+      </c>
+      <c r="D495" t="n">
+        <v>-0.8275946070542596</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>-0.4279256934999722</v>
+        <v>-0.5374381107585299</v>
       </c>
       <c r="B496" t="n">
-        <v>0.03940645812898895</v>
+        <v>-0.02436146435194029</v>
       </c>
       <c r="C496" t="n">
-        <v>-0.3885192353709833</v>
+        <v>0.03700269302128073</v>
+      </c>
+      <c r="D496" t="n">
+        <v>-0.5247968820891895</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>0.2014669885988909</v>
+        <v>0.2633807584784759</v>
       </c>
       <c r="B497" t="n">
-        <v>0.09684678109311366</v>
+        <v>-0.09405222532819361</v>
       </c>
       <c r="C497" t="n">
-        <v>0.2983137696920046</v>
+        <v>0.03141448337894437</v>
+      </c>
+      <c r="D497" t="n">
+        <v>0.2007430165292267</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>-0.6371367325500118</v>
+        <v>-0.7407739201913861</v>
       </c>
       <c r="B498" t="n">
-        <v>0.04377256584445317</v>
+        <v>-0.06793561994956013</v>
       </c>
       <c r="C498" t="n">
-        <v>-0.5933641667055586</v>
+        <v>-0.02405934954280668</v>
+      </c>
+      <c r="D498" t="n">
+        <v>-0.8327688896837528</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>-0.6843468014243723</v>
+        <v>-0.8326665821886446</v>
       </c>
       <c r="B499" t="n">
-        <v>0.01868442365955176</v>
+        <v>-0.02137385366987684</v>
       </c>
       <c r="C499" t="n">
-        <v>-0.6656623777648205</v>
+        <v>0.003490056722926238</v>
+      </c>
+      <c r="D499" t="n">
+        <v>-0.8505503791355953</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>1.706956377517086</v>
+        <v>2.091317256200885</v>
       </c>
       <c r="B500" t="n">
-        <v>0.0453547479222972</v>
+        <v>-0.03536495777677771</v>
       </c>
       <c r="C500" t="n">
-        <v>1.752311125439383</v>
+        <v>0.02282780066375359</v>
+      </c>
+      <c r="D500" t="n">
+        <v>2.07878009908786</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>2.635489171642507</v>
+        <v>3.241730294781905</v>
       </c>
       <c r="B501" t="n">
-        <v>-0.03969891717840083</v>
+        <v>0.02884940151294254</v>
       </c>
       <c r="C501" t="n">
-        <v>2.595790254464106</v>
+        <v>-0.03834291633288914</v>
+      </c>
+      <c r="D501" t="n">
+        <v>3.232236779961958</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>0.2527020265662051</v>
+        <v>0.3673540158894862</v>
       </c>
       <c r="B502" t="n">
-        <v>0.1138933869039912</v>
+        <v>-0.1391209452327996</v>
       </c>
       <c r="C502" t="n">
-        <v>0.3665954134701964</v>
+        <v>-0.008978820767770814</v>
+      </c>
+      <c r="D502" t="n">
+        <v>0.2192542498889157</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>-0.1803449544394723</v>
+        <v>-0.1384884196612897</v>
       </c>
       <c r="B503" t="n">
-        <v>0.0569191596191161</v>
+        <v>-0.1100384837575845</v>
       </c>
       <c r="C503" t="n">
-        <v>-0.1234257948203562</v>
+        <v>-0.06853939735594471</v>
+      </c>
+      <c r="D503" t="n">
+        <v>-0.317066300774819</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>-0.677930936069713</v>
+        <v>-0.8083514295623752</v>
       </c>
       <c r="B504" t="n">
-        <v>0.0403845292723826</v>
+        <v>-0.0520195168448113</v>
       </c>
       <c r="C504" t="n">
-        <v>-0.6375464067973304</v>
+        <v>-0.004726965513745343</v>
+      </c>
+      <c r="D504" t="n">
+        <v>-0.8650979119209318</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>3.86557257828392</v>
+        <v>4.585628889480148</v>
       </c>
       <c r="B505" t="n">
-        <v>-0.2656405035522865</v>
+        <v>0.3441854366649772</v>
       </c>
       <c r="C505" t="n">
-        <v>3.599932074731634</v>
+        <v>0.03648314427484259</v>
+      </c>
+      <c r="D505" t="n">
+        <v>4.966297470419968</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>-1.792764117300133</v>
+        <v>-2.188850382574047</v>
       </c>
       <c r="B506" t="n">
-        <v>-0.1590031038633358</v>
+        <v>0.1258659442415226</v>
       </c>
       <c r="C506" t="n">
-        <v>-1.951767221163468</v>
+        <v>-0.09219664647975974</v>
+      </c>
+      <c r="D506" t="n">
+        <v>-2.155181084812285</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>-1.662962339747291</v>
+        <v>-2.020259833792329</v>
       </c>
       <c r="B507" t="n">
-        <v>-0.124928936348517</v>
+        <v>0.09009426805063174</v>
       </c>
       <c r="C507" t="n">
-        <v>-1.787891276095808</v>
+        <v>-0.08566959562123065</v>
+      </c>
+      <c r="D507" t="n">
+        <v>-2.015835161362928</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>-0.7888531670391479</v>
+        <v>-0.9412736426080363</v>
       </c>
       <c r="B508" t="n">
-        <v>0.02277660724757468</v>
+        <v>-0.03951537789893227</v>
       </c>
       <c r="C508" t="n">
-        <v>-0.7660765597915732</v>
+        <v>-0.01756140144859916</v>
+      </c>
+      <c r="D508" t="n">
+        <v>-0.9983504219555677</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>-1.195973964914591</v>
+        <v>-1.469290485414136</v>
       </c>
       <c r="B509" t="n">
-        <v>-0.03602439948111465</v>
+        <v>0.03137064841343882</v>
       </c>
       <c r="C509" t="n">
-        <v>-1.231998364395706</v>
+        <v>-0.01343377242040712</v>
+      </c>
+      <c r="D509" t="n">
+        <v>-1.451353609421104</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>0.7679911507559355</v>
+        <v>0.9299699337688728</v>
       </c>
       <c r="B510" t="n">
-        <v>0.104691740129095</v>
+        <v>-0.07918000483078898</v>
       </c>
       <c r="C510" t="n">
-        <v>0.8726828908850305</v>
+        <v>0.06814106709720828</v>
+      </c>
+      <c r="D510" t="n">
+        <v>0.918930996035292</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>0.4213143693130713</v>
+        <v>0.6256518815150205</v>
       </c>
       <c r="B511" t="n">
-        <v>0.1139768699620703</v>
+        <v>-0.1774418903446434</v>
       </c>
       <c r="C511" t="n">
-        <v>0.5352912392751416</v>
+        <v>-0.07107244430812734</v>
+      </c>
+      <c r="D511" t="n">
+        <v>0.3771375468622498</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>-0.9397511648106793</v>
+        <v>-1.139709716719161</v>
       </c>
       <c r="B512" t="n">
-        <v>-0.01912062447225904</v>
+        <v>0.005829509771178055</v>
       </c>
       <c r="C512" t="n">
-        <v>-0.9588717892829384</v>
+        <v>-0.02343029048001384</v>
+      </c>
+      <c r="D512" t="n">
+        <v>-1.157310497427997</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>0.1890150699067817</v>
+        <v>0.2184429846777763</v>
       </c>
       <c r="B513" t="n">
-        <v>0.0851992960988027</v>
+        <v>-0.0620766988728509</v>
       </c>
       <c r="C513" t="n">
-        <v>0.2742143660055845</v>
+        <v>0.0608324782214398</v>
+      </c>
+      <c r="D513" t="n">
+        <v>0.2171987640263652</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>-0.3435273697261981</v>
+        <v>-0.359510060433245</v>
       </c>
       <c r="B514" t="n">
-        <v>0.05140574910089741</v>
+        <v>-0.08993435428526121</v>
       </c>
       <c r="C514" t="n">
-        <v>-0.2921216206253007</v>
+        <v>-0.04605216254678071</v>
+      </c>
+      <c r="D514" t="n">
+        <v>-0.4954965772652868</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>0.09878180122000697</v>
+        <v>0.1359960105716818</v>
       </c>
       <c r="B515" t="n">
-        <v>0.08305151732096487</v>
+        <v>-0.08136946824438226</v>
       </c>
       <c r="C515" t="n">
-        <v>0.1818333185409718</v>
+        <v>0.02605877774743084</v>
+      </c>
+      <c r="D515" t="n">
+        <v>0.08068532007473037</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>0.2798488632629438</v>
+        <v>0.3544748768816765</v>
       </c>
       <c r="B516" t="n">
-        <v>0.09076311748832329</v>
+        <v>-0.0850746209286536</v>
       </c>
       <c r="C516" t="n">
-        <v>0.3706119807512671</v>
+        <v>0.03404833448990497</v>
+      </c>
+      <c r="D516" t="n">
+        <v>0.3034485904429279</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>-1.090068242140552</v>
+        <v>-1.346907147610684</v>
       </c>
       <c r="B517" t="n">
-        <v>-0.02946623838519109</v>
+        <v>0.03149688011466037</v>
       </c>
       <c r="C517" t="n">
-        <v>-1.119534480525743</v>
+        <v>-0.001193418325759251</v>
+      </c>
+      <c r="D517" t="n">
+        <v>-1.316603685821782</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>1.638629924075515</v>
+        <v>2.023649628757196</v>
       </c>
       <c r="B518" t="n">
-        <v>0.04138299030460669</v>
+        <v>-0.04408203968077045</v>
       </c>
       <c r="C518" t="n">
-        <v>1.680012914380121</v>
+        <v>0.001531276848247394</v>
+      </c>
+      <c r="D518" t="n">
+        <v>1.981098865924673</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>2.281734386888449</v>
+        <v>2.779370593365614</v>
       </c>
       <c r="B519" t="n">
-        <v>0.03289615790075005</v>
+        <v>-0.01173263686693072</v>
       </c>
       <c r="C519" t="n">
-        <v>2.314630544789199</v>
+        <v>0.03515979351120895</v>
+      </c>
+      <c r="D519" t="n">
+        <v>2.802797750009892</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>-0.5758630769839836</v>
+        <v>-0.6488225760032185</v>
       </c>
       <c r="B520" t="n">
-        <v>0.07487995774303743</v>
+        <v>-0.1067727588506124</v>
       </c>
       <c r="C520" t="n">
-        <v>-0.5009831192409462</v>
+        <v>-0.02783383885680451</v>
+      </c>
+      <c r="D520" t="n">
+        <v>-0.7834291737106354</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>-0.600563005339792</v>
+        <v>-0.7152074962265953</v>
       </c>
       <c r="B521" t="n">
-        <v>0.0473645114449342</v>
+        <v>-0.05656939932735694</v>
       </c>
       <c r="C521" t="n">
-        <v>-0.5531984938948578</v>
+        <v>0.0008941569395535825</v>
+      </c>
+      <c r="D521" t="n">
+        <v>-0.7708827386143986</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>-1.769040884845772</v>
+        <v>-2.205935761009199</v>
       </c>
       <c r="B522" t="n">
-        <v>-0.1718816046588073</v>
+        <v>0.1712263712211868</v>
       </c>
       <c r="C522" t="n">
-        <v>-1.94092248950458</v>
+        <v>-0.04371142922688521</v>
+      </c>
+      <c r="D522" t="n">
+        <v>-2.078420819014898</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>4.494610653801224</v>
+        <v>5.417953578511527</v>
       </c>
       <c r="B523" t="n">
-        <v>-0.2761272177847955</v>
+        <v>0.3082528735417294</v>
       </c>
       <c r="C523" t="n">
-        <v>4.218483436016429</v>
+        <v>-0.04345860606186923</v>
+      </c>
+      <c r="D523" t="n">
+        <v>5.682747845991387</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>-1.11236887242277</v>
+        <v>-1.399879145939619</v>
       </c>
       <c r="B524" t="n">
-        <v>-0.03929814635153318</v>
+        <v>0.05891016649713122</v>
       </c>
       <c r="C524" t="n">
-        <v>-1.151667018774304</v>
+        <v>0.02436055766623509</v>
+      </c>
+      <c r="D524" t="n">
+        <v>-1.316608421776253</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>-0.2525120721733148</v>
+        <v>-0.2830418767470932</v>
       </c>
       <c r="B525" t="n">
-        <v>0.08490403726118766</v>
+        <v>-0.09203890028320436</v>
       </c>
       <c r="C525" t="n">
-        <v>-0.1676080349121271</v>
+        <v>0.01367932154844687</v>
+      </c>
+      <c r="D525" t="n">
+        <v>-0.3614014554818507</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>-1.586991245633069</v>
+        <v>-1.984938649397557</v>
       </c>
       <c r="B526" t="n">
-        <v>-0.1322167299564404</v>
+        <v>0.1394624257984369</v>
       </c>
       <c r="C526" t="n">
-        <v>-1.71920797558951</v>
+        <v>-0.02033833252174458</v>
+      </c>
+      <c r="D526" t="n">
+        <v>-1.865814556120864</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>-1.987845195344624</v>
+        <v>-2.513875745286272</v>
       </c>
       <c r="B527" t="n">
-        <v>-0.2438767653094314</v>
+        <v>0.2615678839087895</v>
       </c>
       <c r="C527" t="n">
-        <v>-2.231721960654055</v>
+        <v>-0.03396211951598232</v>
+      </c>
+      <c r="D527" t="n">
+        <v>-2.286269980893465</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>-0.3427397396521668</v>
+        <v>-0.3873992432189399</v>
       </c>
       <c r="B528" t="n">
-        <v>0.07471752271328704</v>
+        <v>-0.08818043780549516</v>
       </c>
       <c r="C528" t="n">
-        <v>-0.2680222169388798</v>
+        <v>0.000919396384470728</v>
+      </c>
+      <c r="D528" t="n">
+        <v>-0.4746602846399643</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>-0.7337830659874848</v>
+        <v>-0.9089619989449269</v>
       </c>
       <c r="B529" t="n">
-        <v>0.01590531356875265</v>
+        <v>-0.007383468198444492</v>
       </c>
       <c r="C529" t="n">
-        <v>-0.7178777524187321</v>
+        <v>0.02090953388682592</v>
+      </c>
+      <c r="D529" t="n">
+        <v>-0.8954359332565455</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>-0.1596643939686953</v>
+        <v>-0.1696590712213134</v>
       </c>
       <c r="B530" t="n">
-        <v>0.08443740652118009</v>
+        <v>-0.0911991652587263</v>
       </c>
       <c r="C530" t="n">
-        <v>-0.07522698744751524</v>
+        <v>0.01380955344055869</v>
+      </c>
+      <c r="D530" t="n">
+        <v>-0.247048683039481</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>-0.8348649871786943</v>
+        <v>-1.017887340727495</v>
       </c>
       <c r="B531" t="n">
-        <v>0.008539918171069388</v>
+        <v>-0.01244356627600866</v>
       </c>
       <c r="C531" t="n">
-        <v>-0.8263250690076249</v>
+        <v>-0.0008134996774403574</v>
+      </c>
+      <c r="D531" t="n">
+        <v>-1.031144406680944</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>-0.9439772423280829</v>
+        <v>-1.153144460875303</v>
       </c>
       <c r="B532" t="n">
-        <v>-0.01087797967378565</v>
+        <v>0.00499144138168931</v>
       </c>
       <c r="C532" t="n">
-        <v>-0.9548552220018686</v>
+        <v>-0.009151207695297084</v>
+      </c>
+      <c r="D532" t="n">
+        <v>-1.157304227188911</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>-0.9735177758904883</v>
+        <v>-1.193443856353501</v>
       </c>
       <c r="B533" t="n">
-        <v>-0.01346998435994111</v>
+        <v>0.01019667278328448</v>
       </c>
       <c r="C533" t="n">
-        <v>-0.9869877602504293</v>
+        <v>-0.005580659579629889</v>
+      </c>
+      <c r="D533" t="n">
+        <v>-1.188827843149846</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>-0.249487043994687</v>
+        <v>-0.3036896006622313</v>
       </c>
       <c r="B534" t="n">
-        <v>0.06982930723934905</v>
+        <v>-0.06110274196871479</v>
       </c>
       <c r="C534" t="n">
-        <v>-0.1796577367553379</v>
+        <v>0.03487803603486437</v>
+      </c>
+      <c r="D534" t="n">
+        <v>-0.3299143065960817</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>2.569156998821665</v>
+        <v>3.113826544495021</v>
       </c>
       <c r="B535" t="n">
-        <v>-0.02156555173040003</v>
+        <v>0.04812626979747586</v>
       </c>
       <c r="C535" t="n">
-        <v>2.547591447091265</v>
+        <v>0.02725013474739274</v>
+      </c>
+      <c r="D535" t="n">
+        <v>3.18920294903989</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>-1.217866777139988</v>
+        <v>-1.498135910876067</v>
       </c>
       <c r="B536" t="n">
-        <v>-0.05429726006641852</v>
+        <v>0.04832566893716687</v>
       </c>
       <c r="C536" t="n">
-        <v>-1.272164037206406</v>
+        <v>-0.02069110163422543</v>
+      </c>
+      <c r="D536" t="n">
+        <v>-1.470501343573125</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>2.603323026146412</v>
+        <v>3.215506200630581</v>
       </c>
       <c r="B537" t="n">
-        <v>-0.02359904080658549</v>
+        <v>0.005317853515396192</v>
       </c>
       <c r="C537" t="n">
-        <v>2.579723985339826</v>
+        <v>-0.04558377747265295</v>
+      </c>
+      <c r="D537" t="n">
+        <v>3.175240276673324</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>-0.02179643472697157</v>
+        <v>0.025212127037619</v>
       </c>
       <c r="B538" t="n">
-        <v>0.07911616755476988</v>
+        <v>-0.1057924049685944</v>
       </c>
       <c r="C538" t="n">
-        <v>0.05731973282779831</v>
+        <v>-0.02024261236801276</v>
+      </c>
+      <c r="D538" t="n">
+        <v>-0.1008228902989882</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>-0.9892098342054817</v>
+        <v>-1.178596250247724</v>
       </c>
       <c r="B539" t="n">
-        <v>0.01025520851719247</v>
+        <v>-0.0353388601408012</v>
       </c>
       <c r="C539" t="n">
-        <v>-0.9789546256882893</v>
+        <v>-0.03383270598774248</v>
+      </c>
+      <c r="D539" t="n">
+        <v>-1.247767816376268</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>-2.242413758268766</v>
+        <v>-2.877683189010079</v>
       </c>
       <c r="B540" t="n">
-        <v>-0.3275031674513917</v>
+        <v>0.370685357337433</v>
       </c>
       <c r="C540" t="n">
-        <v>-2.569916925720158</v>
+        <v>-0.01591138032333374</v>
+      </c>
+      <c r="D540" t="n">
+        <v>-2.52290921199598</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>-2.266938343756569</v>
+        <v>-2.889111550925356</v>
       </c>
       <c r="B541" t="n">
-        <v>-0.3182415376316561</v>
+        <v>0.3489126282599952</v>
       </c>
       <c r="C541" t="n">
-        <v>-2.585179881388225</v>
+        <v>-0.0333026849645514</v>
+      </c>
+      <c r="D541" t="n">
+        <v>-2.573501607629912</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>-1.026372883669245</v>
+        <v>-1.24990727318847</v>
       </c>
       <c r="B542" t="n">
-        <v>-0.01283025123509648</v>
+        <v>0.00337708229200288</v>
       </c>
       <c r="C542" t="n">
-        <v>-1.039203134904341</v>
+        <v>-0.01514681887371212</v>
+      </c>
+      <c r="D542" t="n">
+        <v>-1.261677009770179</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>0.07186407898733049</v>
+        <v>0.150189353878113</v>
       </c>
       <c r="B543" t="n">
-        <v>0.06578699946187039</v>
+        <v>-0.1019508156776444</v>
       </c>
       <c r="C543" t="n">
-        <v>0.1376510784492009</v>
+        <v>-0.03964878985201916</v>
+      </c>
+      <c r="D543" t="n">
+        <v>0.008589748348449451</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>0.1506229650646314</v>
+        <v>0.1880813630579374</v>
       </c>
       <c r="B544" t="n">
-        <v>0.0954754299734622</v>
+        <v>-0.08328567437752835</v>
       </c>
       <c r="C544" t="n">
-        <v>0.2460983950380936</v>
+        <v>0.0463197753570718</v>
+      </c>
+      <c r="D544" t="n">
+        <v>0.1511154640374808</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>-0.4184876005706458</v>
+        <v>-0.510197796904947</v>
       </c>
       <c r="B545" t="n">
-        <v>0.05005120160501338</v>
+        <v>-0.04505249564277865</v>
       </c>
       <c r="C545" t="n">
-        <v>-0.3684363989656325</v>
+        <v>0.02384782911302289</v>
+      </c>
+      <c r="D545" t="n">
+        <v>-0.5314024634347029</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>-0.1926265713507059</v>
+        <v>-0.2094061101777005</v>
       </c>
       <c r="B546" t="n">
-        <v>0.08928361293569977</v>
+        <v>-0.09584083453251843</v>
       </c>
       <c r="C546" t="n">
-        <v>-0.1033429584150061</v>
+        <v>0.01564168876171004</v>
+      </c>
+      <c r="D546" t="n">
+        <v>-0.2896052559485089</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>-0.2661622396002387</v>
+        <v>-0.330878995069029</v>
       </c>
       <c r="B547" t="n">
-        <v>0.06240509915847996</v>
+        <v>-0.0498018596673316</v>
       </c>
       <c r="C547" t="n">
-        <v>-0.2037571404417587</v>
+        <v>0.03905461782598</v>
+      </c>
+      <c r="D547" t="n">
+        <v>-0.3416262369103806</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>-1.42824805888523</v>
+        <v>-1.8003530592873</v>
       </c>
       <c r="B548" t="n">
-        <v>-0.1009762843096639</v>
+        <v>0.1206533962023328</v>
       </c>
       <c r="C548" t="n">
-        <v>-1.529224343194894</v>
+        <v>0.008001503510088022</v>
+      </c>
+      <c r="D548" t="n">
+        <v>-1.67169815957488</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>-1.448543206130875</v>
+        <v>-1.804065140851948</v>
       </c>
       <c r="B549" t="n">
-        <v>-0.1047805407504397</v>
+        <v>0.1080724103261903</v>
       </c>
       <c r="C549" t="n">
-        <v>-1.553323746881314</v>
+        <v>-0.01936714056554811</v>
+      </c>
+      <c r="D549" t="n">
+        <v>-1.715359871091306</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>-1.635010229171566</v>
+        <v>-2.070576104705843</v>
       </c>
       <c r="B550" t="n">
-        <v>-0.1500694498274931</v>
+        <v>0.1744888807758376</v>
       </c>
       <c r="C550" t="n">
-        <v>-1.78507967899906</v>
+        <v>0.002363243019835577</v>
+      </c>
+      <c r="D550" t="n">
+        <v>-1.89372398091017</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>-1.254027085085464</v>
+        <v>-1.572909188589949</v>
       </c>
       <c r="B551" t="n">
-        <v>-0.07436889405592434</v>
+        <v>0.0879859363667249</v>
       </c>
       <c r="C551" t="n">
-        <v>-1.328395979141388</v>
+        <v>0.005218397773398271</v>
+      </c>
+      <c r="D551" t="n">
+        <v>-1.479704854449826</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>-1.24820614319227</v>
+        <v>-1.577189634634099</v>
       </c>
       <c r="B552" t="n">
-        <v>-0.06412356682483833</v>
+        <v>0.08782060458841491</v>
       </c>
       <c r="C552" t="n">
-        <v>-1.312329710017108</v>
+        <v>0.02433630269213754</v>
+      </c>
+      <c r="D552" t="n">
+        <v>-1.465032727353547</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>-1.15798407692134</v>
+        <v>-1.432590516364666</v>
       </c>
       <c r="B553" t="n">
-        <v>-0.04589831650687481</v>
+        <v>0.04714571952666351</v>
       </c>
       <c r="C553" t="n">
-        <v>-1.203882393428215</v>
+        <v>-0.006898386599769112</v>
+      </c>
+      <c r="D553" t="n">
+        <v>-1.392343183437771</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>-0.5681901502113247</v>
+        <v>-0.7164436641859472</v>
       </c>
       <c r="B554" t="n">
-        <v>0.02302479087860699</v>
+        <v>-0.005394967189415304</v>
       </c>
       <c r="C554" t="n">
-        <v>-0.5451653593327177</v>
+        <v>0.03699210634574144</v>
+      </c>
+      <c r="D554" t="n">
+        <v>-0.6848465250296211</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>-1.748940684695862</v>
+        <v>-2.212157121672963</v>
       </c>
       <c r="B555" t="n">
-        <v>-0.1767188491406509</v>
+        <v>0.1983576454948861</v>
       </c>
       <c r="C555" t="n">
-        <v>-1.925659533836513</v>
+        <v>-0.009304794319588935</v>
+      </c>
+      <c r="D555" t="n">
+        <v>-2.023104270497666</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>-0.5332280910006628</v>
+        <v>-0.6605203943950271</v>
       </c>
       <c r="B556" t="n">
-        <v>0.03224497175971665</v>
+        <v>-0.02290322981907019</v>
       </c>
       <c r="C556" t="n">
-        <v>-0.5009831192409462</v>
+        <v>0.02616609308448122</v>
+      </c>
+      <c r="D556" t="n">
+        <v>-0.657257531129616</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>-1.441311704662572</v>
+        <v>-1.802441584188904</v>
       </c>
       <c r="B557" t="n">
-        <v>-0.09996234037553231</v>
+        <v>0.1093962782775507</v>
       </c>
       <c r="C557" t="n">
-        <v>-1.541274045038104</v>
+        <v>-0.00813807106496618</v>
+      </c>
+      <c r="D557" t="n">
+        <v>-1.70118337697632</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>-1.486926909161141</v>
+        <v>-1.862054819754176</v>
       </c>
       <c r="B558" t="n">
-        <v>-0.106562510530874</v>
+        <v>0.1176859423854293</v>
       </c>
       <c r="C558" t="n">
-        <v>-1.593489419692015</v>
+        <v>-0.007139420220825018</v>
+      </c>
+      <c r="D558" t="n">
+        <v>-1.751508297589572</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>-1.716185216946224</v>
+        <v>-2.179469913042473</v>
       </c>
       <c r="B559" t="n">
-        <v>-0.1733252113606583</v>
+        <v>0.2010895820120013</v>
       </c>
       <c r="C559" t="n">
-        <v>-1.889510428306882</v>
+        <v>0.001398471393464976</v>
+      </c>
+      <c r="D559" t="n">
+        <v>-1.976981859637007</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>0.09737124164489845</v>
+        <v>0.1848480165569826</v>
       </c>
       <c r="B560" t="n">
-        <v>0.08847864417714341</v>
+        <v>-0.1236767701689163</v>
       </c>
       <c r="C560" t="n">
-        <v>0.1858498858220419</v>
+        <v>-0.03170943882851264</v>
+      </c>
+      <c r="D560" t="n">
+        <v>0.02946180755955367</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>-1.031191084044152</v>
+        <v>-1.256945378816814</v>
       </c>
       <c r="B561" t="n">
-        <v>-0.02006175270339942</v>
+        <v>0.0103432493819821</v>
       </c>
       <c r="C561" t="n">
-        <v>-1.051252836747551</v>
+        <v>-0.01762075186492201</v>
+      </c>
+      <c r="D561" t="n">
+        <v>-1.264222881299754</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>-0.1251045516069328</v>
+        <v>-0.1159679597091531</v>
       </c>
       <c r="B562" t="n">
-        <v>0.09405980425118921</v>
+        <v>-0.1077524119362897</v>
       </c>
       <c r="C562" t="n">
-        <v>-0.03104474735574358</v>
+        <v>0.005282979099862912</v>
+      </c>
+      <c r="D562" t="n">
+        <v>-0.2184373925455799</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>-1.128641851179423</v>
+        <v>-1.428169356509809</v>
       </c>
       <c r="B563" t="n">
-        <v>-0.0471245712813014</v>
+        <v>0.07174061298002313</v>
       </c>
       <c r="C563" t="n">
-        <v>-1.175766422460724</v>
+        <v>0.03023421674512293</v>
+      </c>
+      <c r="D563" t="n">
+        <v>-1.326194526784663</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>0.3441559488194838</v>
+        <v>0.5531337514323797</v>
       </c>
       <c r="B564" t="n">
-        <v>0.09473767570997517</v>
+        <v>-0.1776860701637186</v>
       </c>
       <c r="C564" t="n">
-        <v>0.438893624529459</v>
+        <v>-0.1076250208162347</v>
+      </c>
+      <c r="D564" t="n">
+        <v>0.2678226604524264</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>2.756061806381564</v>
+        <v>3.4639387414138</v>
       </c>
       <c r="B565" t="n">
-        <v>-0.02772483164214292</v>
+        <v>-0.03660761720021021</v>
       </c>
       <c r="C565" t="n">
-        <v>2.728336974739421</v>
+        <v>-0.1213903082656592</v>
+      </c>
+      <c r="D565" t="n">
+        <v>3.305940815947931</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>3.150055079649314</v>
+        <v>3.761436851132094</v>
       </c>
       <c r="B566" t="n">
-        <v>-0.1646577989214074</v>
+        <v>0.2182209144393122</v>
       </c>
       <c r="C566" t="n">
-        <v>2.985397280727907</v>
+        <v>0.02772462619877237</v>
+      </c>
+      <c r="D566" t="n">
+        <v>4.007382391770179</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>2.424454153752615</v>
+        <v>2.912429848650232</v>
       </c>
       <c r="B567" t="n">
-        <v>-0.01342599421773379</v>
+        <v>0.05894073491888403</v>
       </c>
       <c r="C567" t="n">
-        <v>2.411028159534881</v>
+        <v>0.06058680092600429</v>
+      </c>
+      <c r="D567" t="n">
+        <v>3.03195738449512</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>0.9052641865361944</v>
+        <v>1.127670720954818</v>
       </c>
       <c r="B568" t="n">
-        <v>0.08791572278093951</v>
+        <v>-0.08671895440369293</v>
       </c>
       <c r="C568" t="n">
-        <v>0.993179909317134</v>
+        <v>0.023742389908303</v>
+      </c>
+      <c r="D568" t="n">
+        <v>1.064694156459427</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>2.526887821835748</v>
+        <v>3.208037905157146</v>
       </c>
       <c r="B569" t="n">
-        <v>0.07291899990942935</v>
+        <v>-0.1408616097155252</v>
       </c>
       <c r="C569" t="n">
-        <v>2.599806821745177</v>
+        <v>-0.09763229488853485</v>
+      </c>
+      <c r="D569" t="n">
+        <v>2.969544000553086</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>-2.231763693645216</v>
+        <v>-2.870417785301749</v>
       </c>
       <c r="B570" t="n">
-        <v>-0.3257018735036247</v>
+        <v>0.3734887106818535</v>
       </c>
       <c r="C570" t="n">
-        <v>-2.557465567148841</v>
+        <v>-0.008029024539819341</v>
+      </c>
+      <c r="D570" t="n">
+        <v>-2.504958099159715</v>
       </c>
     </row>
   </sheetData>
